--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\Documents\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD58D56-8160-4A60-9577-65C14BCBA7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA08553-F76F-4282-829A-BC2EA0C280F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1284" yWindow="840" windowWidth="17280" windowHeight="8916" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
+    <sheet name="_helper" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="125">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,30 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>walk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crouch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jump_start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jump_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cat_idle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,28 +103,396 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{InputX,1,SetAction,102},{InputY,-1,SetAction,103},{JumpValid,1,SetAction,104},{Attack,1,SetAction,106}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{InputX,1,MoveInputX,1},{InputX,0,SetAction,101}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{InputX,1,MoveInputX,1},{Jump,1,MoveY,3},{OnLand,1,SetAction,101},{Frame,20,SetAction,105}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{InputX,1,MoveInputX,1},{OnLand,1,SetAction,101}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{Risable,1,SetAction,101}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{Frame,5,Spawn,10100001}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>_Condition1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_CParam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Function1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_FParam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Condition2</t>
+  </si>
+  <si>
+    <t>_CParam2</t>
+  </si>
+  <si>
+    <t>_Function2</t>
+  </si>
+  <si>
+    <t>_FParam2</t>
+  </si>
+  <si>
+    <t>_Condition3</t>
+  </si>
+  <si>
+    <t>_CParam3</t>
+  </si>
+  <si>
+    <t>_Function3</t>
+  </si>
+  <si>
+    <t>_FParam3</t>
+  </si>
+  <si>
+    <t>_Condition4</t>
+  </si>
+  <si>
+    <t>_CParam4</t>
+  </si>
+  <si>
+    <t>_Function4</t>
+  </si>
+  <si>
+    <t>_FParam4</t>
+  </si>
+  <si>
+    <t>_Condition5</t>
+  </si>
+  <si>
+    <t>_CParam5</t>
+  </si>
+  <si>
+    <t>_Function5</t>
+  </si>
+  <si>
+    <t>_FParam5</t>
+  </si>
+  <si>
+    <t>InputX</t>
+  </si>
+  <si>
+    <t>InputX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputY</t>
+  </si>
+  <si>
+    <t>InputY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Risable</t>
+  </si>
+  <si>
+    <t>Risable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump</t>
+  </si>
+  <si>
+    <t>Jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JumpValid</t>
+  </si>
+  <si>
+    <t>JumpValid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnLand</t>
+  </si>
+  <si>
+    <t>OnLand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnWall</t>
+  </si>
+  <si>
+    <t>OnWall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShrinkEnd</t>
+  </si>
+  <si>
+    <t>ShrinkEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>Frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Walkable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerInSight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveInputX</t>
+  </si>
+  <si>
+    <t>MoveInputX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveLocalX</t>
+  </si>
+  <si>
+    <t>MoveLocalX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveY</t>
+  </si>
+  <si>
+    <t>MoveY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stretch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spawn</t>
+  </si>
+  <si>
+    <t>Spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StalkX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StalkY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetAction</t>
+  </si>
+  <si>
+    <t>SetAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_FParam6</t>
+  </si>
+  <si>
+    <t>_FParam7</t>
+  </si>
+  <si>
+    <t>_FParam8</t>
+  </si>
+  <si>
+    <t>_Condition6</t>
+  </si>
+  <si>
+    <t>_CParam6</t>
+  </si>
+  <si>
+    <t>_Function6</t>
+  </si>
+  <si>
+    <t>cat_run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걷기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웅크리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_crouch_jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_crouch_tackle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웅크리기 포복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_crouch_move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웅크리기 롱 점프 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웅크리기 태클</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웅크리기 멀리 뛰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_crouch_long_jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 내려찍기 준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 내려찍기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 태클</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 벽 긁기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 벽 차기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늘리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_stretch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_jump_loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_jump_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_jump_take_down_ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_jump_take_down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_jump_tackle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_jump_scratch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_jump_scratch_jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늘리기 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늘리기 점프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늘리기 줄어들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_stretch_jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_stretch_move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_stretch_shrink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늘리기 점프 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_stretch_jump_loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Condition7</t>
+  </si>
+  <si>
+    <t>_CParam7</t>
+  </si>
+  <si>
+    <t>_Function7</t>
+  </si>
+  <si>
+    <t>_Condition8</t>
+  </si>
+  <si>
+    <t>_CParam8</t>
+  </si>
+  <si>
+    <t>_Function8</t>
   </si>
 </sst>
 </file>
@@ -193,15 +538,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -212,6 +567,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07CD4AC0-49C4-4B86-80BF-22BA39ABB725}" name="표1" displayName="표1" ref="A1:AQ23" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:AQ23" xr:uid="{07CD4AC0-49C4-4B86-80BF-22BA39ABB725}"/>
+  <tableColumns count="43">
+    <tableColumn id="1" xr3:uid="{70D73D05-C779-4D87-984C-9925A5D4EBE2}" name="Key"/>
+    <tableColumn id="2" xr3:uid="{6C939BEA-81BC-4199-8571-BE159B9E93BD}" name="_memo"/>
+    <tableColumn id="3" xr3:uid="{B8242E3F-DBF6-4A16-818B-C9ABC8E62016}" name="Clip"/>
+    <tableColumn id="4" xr3:uid="{D341272A-1E8B-4139-B516-A3F78FFBCAC4}" name="ColliderX"/>
+    <tableColumn id="5" xr3:uid="{66D8E9F4-91EC-449B-BD84-D477577D0BDA}" name="ColliderY"/>
+    <tableColumn id="6" xr3:uid="{61839081-62D1-46B7-B1CB-7CBE703090EA}" name="TransitionDuration"/>
+    <tableColumn id="7" xr3:uid="{AF58775A-FB5B-47D2-8233-1A2E3CC10748}" name="GravityScale"/>
+    <tableColumn id="8" xr3:uid="{5E8CC3C1-8CC4-44F2-9002-B32E9F57970F}" name="MaxVelocityX"/>
+    <tableColumn id="9" xr3:uid="{EAA5B269-9001-47D6-BE44-8EC916FD8213}" name="MaxVelocityY"/>
+    <tableColumn id="10" xr3:uid="{44CA818E-4348-4E9B-BFE7-D7065C29A1CC}" name="NextAction"/>
+    <tableColumn id="11" xr3:uid="{35C412BA-EE11-4A2F-9D22-EE4603F7C870}" name="FrameUpdates" dataDxfId="0">
+      <calculatedColumnFormula>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{320A7F95-F6BD-43BC-A658-2E1B72C7B933}" name="_Condition1"/>
+    <tableColumn id="13" xr3:uid="{41DB5109-FC19-45EB-A940-BD056FB42914}" name="_CParam1"/>
+    <tableColumn id="14" xr3:uid="{C7C744EA-05BB-4866-A16C-D8B9B2757A35}" name="_Function1"/>
+    <tableColumn id="15" xr3:uid="{A334B4E8-FA50-4DE1-BD73-FEFF80A30F62}" name="_FParam1"/>
+    <tableColumn id="16" xr3:uid="{DF5A7F3C-7BA6-43D7-9B25-E8F8F7E7AA2C}" name="_Condition2"/>
+    <tableColumn id="17" xr3:uid="{47AD74E1-2704-4FC9-8BEC-CC59BAF12FBE}" name="_CParam2"/>
+    <tableColumn id="18" xr3:uid="{AAECFAF3-D1BF-4869-B645-DA7CB20846D7}" name="_Function2"/>
+    <tableColumn id="19" xr3:uid="{09049A78-2651-4512-968B-E9B30A3D3A82}" name="_FParam2"/>
+    <tableColumn id="20" xr3:uid="{76733EAE-F1B4-4E0D-84FB-DA491ADCDBDB}" name="_Condition3"/>
+    <tableColumn id="21" xr3:uid="{BC0513AF-C726-42DA-A5F2-D81B978153A0}" name="_CParam3"/>
+    <tableColumn id="22" xr3:uid="{C03EB3A4-91F0-460C-A619-298554915FCD}" name="_Function3"/>
+    <tableColumn id="23" xr3:uid="{63C0F9D6-073A-4C30-98AF-8F22B8031C6C}" name="_FParam3"/>
+    <tableColumn id="24" xr3:uid="{4881689D-EBB8-4157-8A83-031C27033923}" name="_Condition4"/>
+    <tableColumn id="25" xr3:uid="{E2FF5D18-F5C7-46C8-964C-06972626718E}" name="_CParam4"/>
+    <tableColumn id="26" xr3:uid="{7DE1AA26-3690-435A-8924-6390EDA82B12}" name="_Function4"/>
+    <tableColumn id="27" xr3:uid="{A2634D1B-E30D-488B-B10F-250A4346D252}" name="_FParam4"/>
+    <tableColumn id="28" xr3:uid="{F888AFF0-4016-4EB5-9FBE-B648445B15A7}" name="_Condition5"/>
+    <tableColumn id="29" xr3:uid="{495F83B2-0260-4CD3-B92B-09BE13312679}" name="_CParam5"/>
+    <tableColumn id="30" xr3:uid="{04E8C136-A445-403C-B8E8-63FCEF9AD42C}" name="_Function5"/>
+    <tableColumn id="31" xr3:uid="{3A046A1E-3352-40D9-BF5B-479CE77D5FC7}" name="_FParam5"/>
+    <tableColumn id="32" xr3:uid="{DA633A77-0164-4AD7-BCBA-05E4B0213F6F}" name="_Condition6"/>
+    <tableColumn id="33" xr3:uid="{045CC860-865A-47B0-9CC2-DAB235161AE5}" name="_CParam6"/>
+    <tableColumn id="34" xr3:uid="{A796A374-DB2B-409B-910F-B16192E8FC6A}" name="_Function6"/>
+    <tableColumn id="35" xr3:uid="{6F76813A-2D9E-46AF-9696-CA1CF514229B}" name="_FParam6"/>
+    <tableColumn id="36" xr3:uid="{7863383B-898A-45FC-882B-025E8DFB2B36}" name="_Condition7"/>
+    <tableColumn id="37" xr3:uid="{C25B7872-FFC0-47BA-A57A-AD66D0F75DF8}" name="_CParam7"/>
+    <tableColumn id="38" xr3:uid="{BB2350B5-D983-4481-90F1-CA9EDF0C17C9}" name="_Function7"/>
+    <tableColumn id="39" xr3:uid="{4B62B62C-8411-4EE1-9583-91623380B8E9}" name="_FParam7"/>
+    <tableColumn id="40" xr3:uid="{4F233321-347E-4D92-B126-8524D8CF1282}" name="_Condition8"/>
+    <tableColumn id="41" xr3:uid="{1D252DAD-F62E-416B-9102-73DDC6197ECB}" name="_CParam8"/>
+    <tableColumn id="42" xr3:uid="{83D40AF4-0DF5-40F2-B29B-0AA247B5A104}" name="_Function8"/>
+    <tableColumn id="43" xr3:uid="{9E17C2D4-0D94-4BB0-8D6A-EA1FDC7E2325}" name="_FParam8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -531,66 +946,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:AQ23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="6" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.625" customWidth="1"/>
+    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:43" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
       <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
       </c>
       <c r="D2">
         <v>0.8</v>
@@ -610,19 +1154,98 @@
       <c r="I2">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K2" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{InputX,1,SetAction,102},{InputY,-1,SetAction,103},{InputY,1,SetAction,108},{Attack,1,SetAction,106},{OnLand,0,SetAction,105},{JumpValid,1,SetAction,104}]</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2">
+        <v>102</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2">
+        <v>-1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2">
+        <v>103</v>
+      </c>
+      <c r="T2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2">
+        <v>108</v>
+      </c>
+      <c r="X2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2">
+        <v>106</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE2">
+        <v>105</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
       <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
       </c>
       <c r="D3">
         <v>0.8</v>
@@ -642,19 +1265,122 @@
       <c r="I3">
         <v>3</v>
       </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K3" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{InputX,1,MoveInputX,1},{InputX,0,SetAction,101},{InputY,-1,SetAction,103},{InputY,1,SetAction,108},{Attack,1,SetAction,106},{Run,1,SetAction,107},{OnLand,0,SetAction,105},{JumpValid,1,SetAction,104}]</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S3">
+        <v>101</v>
+      </c>
+      <c r="T3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3">
+        <v>-1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>72</v>
+      </c>
+      <c r="W3">
+        <v>103</v>
+      </c>
+      <c r="X3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA3">
+        <v>108</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE3">
+        <v>106</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI3">
+        <v>107</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM3">
+        <v>105</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>0.8</v>
@@ -674,19 +1400,86 @@
       <c r="I4">
         <v>3</v>
       </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K4" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{Risable,1,SetAction,101},{InputX,1,SetAction,131},{Attack,1,SetAction,133},{OnLand,0,SetAction,105},{JumpValid,1,SetAction,132}]</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4">
+        <v>101</v>
+      </c>
+      <c r="P4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S4">
+        <v>131</v>
+      </c>
+      <c r="T4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>72</v>
+      </c>
+      <c r="W4">
+        <v>133</v>
+      </c>
+      <c r="X4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA4">
+        <v>105</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>0.8</v>
@@ -695,7 +1488,7 @@
         <v>1.6</v>
       </c>
       <c r="F5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -706,19 +1499,65 @@
       <c r="I5">
         <v>3</v>
       </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J5">
+        <v>105</v>
+      </c>
+      <c r="K5" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{InputX,1,MoveInputX,1},{Jump,1,MoveY,3},{OnLand,1,SetAction,101}]</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>65</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5" t="s">
+        <v>72</v>
+      </c>
+      <c r="W5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="D6">
         <v>0.8</v>
@@ -738,19 +1577,86 @@
       <c r="I6">
         <v>3</v>
       </c>
-      <c r="K6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K6" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{InputX,1,MoveInputX,1},{InputY,-1,SetAction,152},{Attack,1,SetAction,151},{OnWall,1,SetAction,155},{OnLand,1,SetAction,101}]</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6">
+        <v>-1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>72</v>
+      </c>
+      <c r="S6">
+        <v>152</v>
+      </c>
+      <c r="T6" t="s">
+        <v>46</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6" t="s">
+        <v>72</v>
+      </c>
+      <c r="W6">
+        <v>151</v>
+      </c>
+      <c r="X6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA6">
+        <v>155</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>106</v>
       </c>
       <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
       <c r="D7">
         <v>0.8</v>
@@ -773,8 +1679,1525 @@
       <c r="J7">
         <v>101</v>
       </c>
-      <c r="K7" t="s">
-        <v>27</v>
+      <c r="K7" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{Frame,5,Spawn,10100001}]</v>
+      </c>
+      <c r="L7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7">
+        <v>10100001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>0.8</v>
+      </c>
+      <c r="E8">
+        <v>1.6</v>
+      </c>
+      <c r="F8">
+        <v>0.2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="K8" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{InputX,1,MoveInputX,2},{Attack,0,SetAction,102},{InputX,0,SetAction,101},{InputY,-1,SetAction,103},{InputY,1,SetAction,108},{OnLand,0,SetAction,105},{JumpValid,1,SetAction,104}]</v>
+      </c>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S8">
+        <v>102</v>
+      </c>
+      <c r="T8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>72</v>
+      </c>
+      <c r="W8">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y8">
+        <v>-1</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA8">
+        <v>103</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE8">
+        <v>108</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI8">
+        <v>105</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9">
+        <v>0.8</v>
+      </c>
+      <c r="E9">
+        <v>1.6</v>
+      </c>
+      <c r="F9">
+        <v>0.2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="K9" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{InputX,1,SetAction,181},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182}]</v>
+      </c>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9">
+        <v>181</v>
+      </c>
+      <c r="P9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>72</v>
+      </c>
+      <c r="S9">
+        <v>184</v>
+      </c>
+      <c r="T9" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9">
+        <v>-1</v>
+      </c>
+      <c r="V9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W9">
+        <v>184</v>
+      </c>
+      <c r="X9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA9">
+        <v>183</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE9">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>131</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10">
+        <v>0.8</v>
+      </c>
+      <c r="E10">
+        <v>0.8</v>
+      </c>
+      <c r="F10">
+        <v>0.2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="K10" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{InputX,1,MoveInputX,1},{InputX,0,SetAction,103},{Attack,1,SetAction,133},{OnLand,0,SetAction,105},{JumpValid,1,SetAction,134}]</v>
+      </c>
+      <c r="L10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>72</v>
+      </c>
+      <c r="S10">
+        <v>103</v>
+      </c>
+      <c r="T10" t="s">
+        <v>46</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10" t="s">
+        <v>72</v>
+      </c>
+      <c r="W10">
+        <v>133</v>
+      </c>
+      <c r="X10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA10">
+        <v>105</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE10">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>132</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="E11">
+        <v>0.8</v>
+      </c>
+      <c r="F11">
+        <v>0.2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>105</v>
+      </c>
+      <c r="K11" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{Frame,1,MoveY,6}]</v>
+      </c>
+      <c r="L11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>133</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12">
+        <v>0.8</v>
+      </c>
+      <c r="E12">
+        <v>0.8</v>
+      </c>
+      <c r="F12">
+        <v>0.2</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>0.1</v>
+      </c>
+      <c r="K12" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{Frame,1,MoveLocalX,6},{InputX,0,MoveLocalX,0.01},{InputX,1,MoveLocalX,0.01},{Frame,1,Spawn,10100001}]</v>
+      </c>
+      <c r="L12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12">
+        <v>6</v>
+      </c>
+      <c r="P12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>62</v>
+      </c>
+      <c r="S12">
+        <v>0.01</v>
+      </c>
+      <c r="T12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12" t="s">
+        <v>62</v>
+      </c>
+      <c r="W12">
+        <v>0.01</v>
+      </c>
+      <c r="X12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA12">
+        <v>10100001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>134</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13">
+        <v>0.8</v>
+      </c>
+      <c r="E13">
+        <v>0.8</v>
+      </c>
+      <c r="F13">
+        <v>0.2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>105</v>
+      </c>
+      <c r="K13" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{Frame,1,MoveLocalX,6},{Frame,1,MoveY,3},{InputX,0,MoveLocalX,0.01},{InputX,1,MoveLocalX,0.01},{OnLand,1,SetAction,101}]</v>
+      </c>
+      <c r="L13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>62</v>
+      </c>
+      <c r="O13">
+        <v>6</v>
+      </c>
+      <c r="P13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>65</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13" t="s">
+        <v>62</v>
+      </c>
+      <c r="W13">
+        <v>0.01</v>
+      </c>
+      <c r="X13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA13">
+        <v>0.01</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>151</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14">
+        <v>0.8</v>
+      </c>
+      <c r="E14">
+        <v>1.6</v>
+      </c>
+      <c r="F14">
+        <v>0.2</v>
+      </c>
+      <c r="G14">
+        <v>0.1</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>0.1</v>
+      </c>
+      <c r="J14">
+        <v>105</v>
+      </c>
+      <c r="K14" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{Frame,5,Spawn,10100001},{OnLand,1,SetAction,101}]</v>
+      </c>
+      <c r="L14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>68</v>
+      </c>
+      <c r="O14">
+        <v>10100001</v>
+      </c>
+      <c r="P14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>72</v>
+      </c>
+      <c r="S14">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>152</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15">
+        <v>0.8</v>
+      </c>
+      <c r="E15">
+        <v>1.6</v>
+      </c>
+      <c r="F15">
+        <v>0.2</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>154</v>
+      </c>
+      <c r="K15" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{Attack,1,SetAction,153}]</v>
+      </c>
+      <c r="L15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>72</v>
+      </c>
+      <c r="O15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>153</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16">
+        <v>0.8</v>
+      </c>
+      <c r="E16">
+        <v>0.8</v>
+      </c>
+      <c r="F16">
+        <v>0.2</v>
+      </c>
+      <c r="G16">
+        <v>0.1</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>0.1</v>
+      </c>
+      <c r="K16" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{Frame,1,MoveLocalX,6},{InputX,0,MoveLocalX,0.01},{InputX,1,MoveLocalX,0.01},{Frame,1,Spawn,10100001}]</v>
+      </c>
+      <c r="L16" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>62</v>
+      </c>
+      <c r="O16">
+        <v>6</v>
+      </c>
+      <c r="P16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>62</v>
+      </c>
+      <c r="S16">
+        <v>0.01</v>
+      </c>
+      <c r="T16" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16" t="s">
+        <v>62</v>
+      </c>
+      <c r="W16">
+        <v>0.01</v>
+      </c>
+      <c r="X16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA16">
+        <v>10100001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>154</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17">
+        <v>0.8</v>
+      </c>
+      <c r="E17">
+        <v>1.6</v>
+      </c>
+      <c r="F17">
+        <v>0.2</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="K17" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{InputX,0,MoveLocalX,6},{InputX,1,MoveLocalX,6},{InputX,0,MoveY,-6},{InputX,1,MoveY,-6}]</v>
+      </c>
+      <c r="L17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>62</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="P17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>62</v>
+      </c>
+      <c r="S17">
+        <v>6</v>
+      </c>
+      <c r="T17" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17" t="s">
+        <v>65</v>
+      </c>
+      <c r="W17">
+        <v>-6</v>
+      </c>
+      <c r="X17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA17">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>155</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18">
+        <v>0.8</v>
+      </c>
+      <c r="E18">
+        <v>1.6</v>
+      </c>
+      <c r="F18">
+        <v>0.2</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{JumpValid,1,SetAction,156},{OnWall,1,SetAction,155},{OnLand,1,SetAction,101}]</v>
+      </c>
+      <c r="L18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18">
+        <v>156</v>
+      </c>
+      <c r="P18" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
+        <v>72</v>
+      </c>
+      <c r="S18">
+        <v>155</v>
+      </c>
+      <c r="T18" t="s">
+        <v>50</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18" t="s">
+        <v>72</v>
+      </c>
+      <c r="W18">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>156</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19">
+        <v>0.8</v>
+      </c>
+      <c r="E19">
+        <v>1.6</v>
+      </c>
+      <c r="F19">
+        <v>0.2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>105</v>
+      </c>
+      <c r="K19" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{Frame,1,MoveLocalX,-3},{Frame,1,MoveY,3}]</v>
+      </c>
+      <c r="L19" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>62</v>
+      </c>
+      <c r="O19">
+        <v>-3</v>
+      </c>
+      <c r="P19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s">
+        <v>65</v>
+      </c>
+      <c r="S19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>181</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20">
+        <v>0.8</v>
+      </c>
+      <c r="E20">
+        <v>1.6</v>
+      </c>
+      <c r="F20">
+        <v>0.2</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="K20" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{InputX,1,MoveInputX,1},{InputX,0,SetAction,108},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182}]</v>
+      </c>
+      <c r="L20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>72</v>
+      </c>
+      <c r="S20">
+        <v>108</v>
+      </c>
+      <c r="T20" t="s">
+        <v>38</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20" t="s">
+        <v>72</v>
+      </c>
+      <c r="W20">
+        <v>184</v>
+      </c>
+      <c r="X20" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA20">
+        <v>184</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE20">
+        <v>183</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI20">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>182</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21">
+        <v>0.8</v>
+      </c>
+      <c r="E21">
+        <v>1.6</v>
+      </c>
+      <c r="F21">
+        <v>0.2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>183</v>
+      </c>
+      <c r="K21" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{InputX,1,MoveInputX,1},{Jump,1,MoveY,1},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,1,SetAction,108}]</v>
+      </c>
+      <c r="L21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>60</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21" t="s">
+        <v>65</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
+        <v>38</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21" t="s">
+        <v>72</v>
+      </c>
+      <c r="W21">
+        <v>184</v>
+      </c>
+      <c r="X21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y21">
+        <v>-1</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA21">
+        <v>184</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE21">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>183</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22">
+        <v>0.8</v>
+      </c>
+      <c r="E22">
+        <v>1.6</v>
+      </c>
+      <c r="F22">
+        <v>0.2</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="K22" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{InputX,1,MoveInputX,1},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,1,SetAction,108}]</v>
+      </c>
+      <c r="L22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>60</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="s">
+        <v>72</v>
+      </c>
+      <c r="S22">
+        <v>184</v>
+      </c>
+      <c r="T22" t="s">
+        <v>38</v>
+      </c>
+      <c r="U22">
+        <v>-1</v>
+      </c>
+      <c r="V22" t="s">
+        <v>72</v>
+      </c>
+      <c r="W22">
+        <v>184</v>
+      </c>
+      <c r="X22" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA22">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>184</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23">
+        <v>0.8</v>
+      </c>
+      <c r="E23">
+        <v>1.6</v>
+      </c>
+      <c r="F23">
+        <v>0.2</v>
+      </c>
+      <c r="G23">
+        <v>0.1</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>105</v>
+      </c>
+      <c r="K23" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{InputX,1,MoveInputX,1},{ShrinkEnd,1,MoveY,3}]</v>
+      </c>
+      <c r="L23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>60</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s">
+        <v>65</v>
+      </c>
+      <c r="S23">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F8A3577E-EF4B-4811-8E39-32038366E60D}">
+          <x14:formula1>
+            <xm:f>_helper!$B:$B</xm:f>
+          </x14:formula1>
+          <xm:sqref>AP3 AL8 AL2:AL3 AH2:AH23 N2:N23 AD2:AD23 Z2:Z23 V2:V23 R2:R23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{38EFAF22-778F-4724-863A-ECD1104B256A}">
+          <x14:formula1>
+            <xm:f>_helper!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>AN3 AJ8 AJ2:AJ3 AF2:AF23 P2:P23 AB2:AB23 X2:X23 T2:T23 L2:L23</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65113C7D-484D-4DF3-9D02-02492F57BDB8}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA08553-F76F-4282-829A-BC2EA0C280F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB4E26D-FA40-49DF-A0EF-8882812DC967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="158">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -493,6 +493,134 @@
   </si>
   <si>
     <t>_Function8</t>
+  </si>
+  <si>
+    <t>가시 튀어나온 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가시 들어간 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥 켜진 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥 꺼진 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고무공 평상시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고무공 튕김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집게 평상 시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집게 잡은 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집게 비활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오니 쥐로 대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오니 변신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오니 휴식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오니 추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clamp_hold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clamp_deactive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clamp_active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oni_disguised</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oni_transform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oni_follow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oni_idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Walkable</t>
+  </si>
+  <si>
+    <t>dog_move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경비견 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerInSight</t>
+  </si>
+  <si>
+    <t>StalkX</t>
+  </si>
+  <si>
+    <t>StalkY</t>
+  </si>
+  <si>
+    <t>on_off_block_active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_off_block_deactive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_off_thorn_active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_off_thorn_deactive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rubber_ball_idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rubber_ball_elastic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집게 붙잡힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -538,12 +666,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,8 +701,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07CD4AC0-49C4-4B86-80BF-22BA39ABB725}" name="표1" displayName="표1" ref="A1:AQ23" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:AQ23" xr:uid="{07CD4AC0-49C4-4B86-80BF-22BA39ABB725}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07CD4AC0-49C4-4B86-80BF-22BA39ABB725}" name="표1" displayName="표1" ref="A1:AQ38" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:AQ38" xr:uid="{07CD4AC0-49C4-4B86-80BF-22BA39ABB725}"/>
   <tableColumns count="43">
     <tableColumn id="1" xr3:uid="{70D73D05-C779-4D87-984C-9925A5D4EBE2}" name="Key"/>
     <tableColumn id="2" xr3:uid="{6C939BEA-81BC-4199-8571-BE159B9E93BD}" name="_memo"/>
@@ -946,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
-  <dimension ref="A1:AQ23"/>
+  <dimension ref="A1:AQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -963,7 +1094,7 @@
     <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.625" customWidth="1"/>
     <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
@@ -995,7 +1126,7 @@
     <col min="43" max="43" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +1277,7 @@
         <v>0.2</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1257,7 +1388,7 @@
         <v>0.2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -1392,7 +1523,7 @@
         <v>0.2</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1491,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -1569,7 +1700,7 @@
         <v>0.2</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1668,7 +1799,7 @@
         <v>0.2</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -1722,7 +1853,7 @@
         <v>0.2</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -1845,7 +1976,7 @@
         <v>0.2</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1926,13 +2057,13 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>0.8</v>
@@ -1944,10 +2075,10 @@
         <v>0.2</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -1960,78 +2091,54 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,MoveInputX,1},{InputX,0,SetAction,103},{Attack,1,SetAction,133},{OnLand,0,SetAction,105},{JumpValid,1,SetAction,134}]</v>
+        <v>[{Jump,1,SetAction,104},{InputX,1,MoveInputX,1},{InputX,1,MoveY,0.1}]</v>
       </c>
       <c r="L10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="P10" t="s">
         <v>36</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="S10">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="T10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="U10">
         <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="W10">
-        <v>133</v>
-      </c>
-      <c r="X10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA10">
-        <v>105</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC10">
-        <v>1</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE10">
-        <v>134</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D11">
         <v>0.8</v>
@@ -2043,16 +2150,13 @@
         <v>0.2</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>6</v>
-      </c>
-      <c r="J11">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="K11" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -2062,30 +2166,78 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,1,MoveY,6}]</v>
+        <v>[{InputX,1,MoveInputX,1},{InputX,0,SetAction,103},{Attack,1,SetAction,133},{OnLand,0,SetAction,105},{JumpValid,1,SetAction,134}]</v>
       </c>
       <c r="L11" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="O11">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S11">
+        <v>103</v>
+      </c>
+      <c r="T11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11" t="s">
+        <v>72</v>
+      </c>
+      <c r="W11">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA11">
+        <v>105</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE11">
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12">
         <v>0.8</v>
@@ -2097,13 +2249,16 @@
         <v>0.2</v>
       </c>
       <c r="G12">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>6</v>
       </c>
-      <c r="I12">
-        <v>0.1</v>
+      <c r="J12">
+        <v>105</v>
       </c>
       <c r="K12" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -2113,7 +2268,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,1,MoveLocalX,6},{InputX,0,MoveLocalX,0.01},{InputX,1,MoveLocalX,0.01},{Frame,1,Spawn,10100001}]</v>
+        <v>[{Frame,1,MoveY,6}]</v>
       </c>
       <c r="L12" t="s">
         <v>56</v>
@@ -2122,57 +2277,21 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O12">
         <v>6</v>
       </c>
-      <c r="P12" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12" t="s">
-        <v>62</v>
-      </c>
-      <c r="S12">
-        <v>0.01</v>
-      </c>
-      <c r="T12" t="s">
-        <v>36</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="V12" t="s">
-        <v>62</v>
-      </c>
-      <c r="W12">
-        <v>0.01</v>
-      </c>
-      <c r="X12" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA12">
-        <v>10100001</v>
-      </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D13">
         <v>0.8</v>
@@ -2184,16 +2303,13 @@
         <v>0.2</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H13">
         <v>6</v>
       </c>
       <c r="I13">
-        <v>3</v>
-      </c>
-      <c r="J13">
-        <v>105</v>
+        <v>0.1</v>
       </c>
       <c r="K13" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -2203,7 +2319,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,1,MoveLocalX,6},{Frame,1,MoveY,3},{InputX,0,MoveLocalX,0.01},{InputX,1,MoveLocalX,0.01},{OnLand,1,SetAction,101}]</v>
+        <v>[{Frame,1,MoveLocalX,6},{InputX,0,MoveLocalX,0.01},{InputX,1,MoveLocalX,0.01},{Frame,1,Spawn,10100001}]</v>
       </c>
       <c r="L13" t="s">
         <v>56</v>
@@ -2218,22 +2334,22 @@
         <v>6</v>
       </c>
       <c r="P13" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="T13" t="s">
         <v>36</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="s">
         <v>62</v>
@@ -2242,57 +2358,45 @@
         <v>0.01</v>
       </c>
       <c r="X13" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="Y13">
         <v>1</v>
       </c>
       <c r="Z13" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AA13">
-        <v>0.01</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC13">
-        <v>1</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE13">
-        <v>101</v>
+        <v>10100001</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D14">
         <v>0.8</v>
       </c>
       <c r="E14">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="F14">
         <v>0.2</v>
       </c>
       <c r="G14">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
         <v>3</v>
-      </c>
-      <c r="I14">
-        <v>0.1</v>
       </c>
       <c r="J14">
         <v>105</v>
@@ -2305,42 +2409,78 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,5,Spawn,10100001},{OnLand,1,SetAction,101}]</v>
+        <v>[{Frame,1,MoveLocalX,6},{Frame,1,MoveY,3},{InputX,0,MoveLocalX,0.01},{InputX,1,MoveLocalX,0.01},{OnLand,1,SetAction,101}]</v>
       </c>
       <c r="L14" t="s">
         <v>56</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="O14">
-        <v>10100001</v>
+        <v>6</v>
       </c>
       <c r="P14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>65</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>62</v>
+      </c>
+      <c r="W14">
+        <v>0.01</v>
+      </c>
+      <c r="X14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA14">
+        <v>0.01</v>
+      </c>
+      <c r="AB14" t="s">
         <v>50</v>
       </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14" t="s">
-        <v>72</v>
-      </c>
-      <c r="S14">
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE14">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15">
         <v>0.8</v>
@@ -2352,16 +2492,16 @@
         <v>0.2</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J15">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="K15" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -2371,48 +2511,63 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Attack,1,SetAction,153}]</v>
+        <v>[{Frame,5,Spawn,10100001},{OnLand,1,SetAction,101}]</v>
       </c>
       <c r="L15" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O15">
-        <v>153</v>
+        <v>10100001</v>
+      </c>
+      <c r="P15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>72</v>
+      </c>
+      <c r="S15">
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D16">
         <v>0.8</v>
       </c>
       <c r="E16">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="F16">
         <v>0.2</v>
       </c>
       <c r="G16">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>154</v>
       </c>
       <c r="K16" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -2422,84 +2577,48 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,1,MoveLocalX,6},{InputX,0,MoveLocalX,0.01},{InputX,1,MoveLocalX,0.01},{Frame,1,Spawn,10100001}]</v>
+        <v>[{Attack,1,SetAction,153}]</v>
       </c>
       <c r="L16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="O16">
-        <v>6</v>
-      </c>
-      <c r="P16" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16" t="s">
-        <v>62</v>
-      </c>
-      <c r="S16">
-        <v>0.01</v>
-      </c>
-      <c r="T16" t="s">
-        <v>36</v>
-      </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
-      <c r="V16" t="s">
-        <v>62</v>
-      </c>
-      <c r="W16">
-        <v>0.01</v>
-      </c>
-      <c r="X16" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA16">
-        <v>10100001</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D17">
         <v>0.8</v>
       </c>
       <c r="E17">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="F17">
         <v>0.2</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H17">
         <v>6</v>
       </c>
       <c r="I17">
-        <v>6</v>
+        <v>0.1</v>
       </c>
       <c r="K17" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -2509,13 +2628,13 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,0,MoveLocalX,6},{InputX,1,MoveLocalX,6},{InputX,0,MoveY,-6},{InputX,1,MoveY,-6}]</v>
+        <v>[{Frame,1,MoveLocalX,6},{InputX,0,MoveLocalX,0.01},{InputX,1,MoveLocalX,0.01},{Frame,1,Spawn,10100001}]</v>
       </c>
       <c r="L17" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
         <v>62</v>
@@ -2527,48 +2646,48 @@
         <v>36</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="s">
         <v>62</v>
       </c>
       <c r="S17">
-        <v>6</v>
+        <v>0.01</v>
       </c>
       <c r="T17" t="s">
         <v>36</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W17">
-        <v>-6</v>
+        <v>0.01</v>
       </c>
       <c r="X17" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="Y17">
         <v>1</v>
       </c>
       <c r="Z17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AA17">
-        <v>-6</v>
+        <v>10100001</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D18">
         <v>0.8</v>
@@ -2580,13 +2699,13 @@
         <v>0.2</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K18" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -2596,54 +2715,66 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{JumpValid,1,SetAction,156},{OnWall,1,SetAction,155},{OnLand,1,SetAction,101}]</v>
+        <v>[{InputX,0,MoveLocalX,6},{InputX,1,MoveLocalX,6},{InputX,0,MoveY,-6},{InputX,1,MoveY,-6}]</v>
       </c>
       <c r="L18" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="O18">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="P18" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="Q18">
         <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="S18">
-        <v>155</v>
+        <v>6</v>
       </c>
       <c r="T18" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="W18">
-        <v>101</v>
+        <v>-6</v>
+      </c>
+      <c r="X18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA18">
+        <v>-6</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19">
         <v>0.8</v>
@@ -2655,16 +2786,13 @@
         <v>0.2</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>3</v>
-      </c>
-      <c r="J19">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="K19" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -2674,42 +2802,54 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,1,MoveLocalX,-3},{Frame,1,MoveY,3}]</v>
+        <v>[{JumpValid,1,SetAction,156},{OnWall,1,SetAction,155},{OnLand,1,SetAction,101}]</v>
       </c>
       <c r="L19" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="O19">
-        <v>-3</v>
+        <v>156</v>
       </c>
       <c r="P19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q19">
         <v>1</v>
       </c>
       <c r="R19" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="S19">
-        <v>3</v>
+        <v>155</v>
+      </c>
+      <c r="T19" t="s">
+        <v>50</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19" t="s">
+        <v>72</v>
+      </c>
+      <c r="W19">
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D20">
         <v>0.8</v>
@@ -2721,13 +2861,16 @@
         <v>0.2</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>3</v>
+      </c>
+      <c r="J20">
+        <v>105</v>
       </c>
       <c r="K20" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -2737,90 +2880,42 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,MoveInputX,1},{InputX,0,SetAction,108},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182}]</v>
+        <v>[{Frame,1,MoveLocalX,-3},{Frame,1,MoveY,3}]</v>
       </c>
       <c r="L20" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="M20">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="P20" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="S20">
-        <v>108</v>
-      </c>
-      <c r="T20" t="s">
-        <v>38</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20" t="s">
-        <v>72</v>
-      </c>
-      <c r="W20">
-        <v>184</v>
-      </c>
-      <c r="X20" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA20">
-        <v>184</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE20">
-        <v>183</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG20">
-        <v>1</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI20">
-        <v>182</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D21">
         <v>0.8</v>
@@ -2832,16 +2927,13 @@
         <v>0.2</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21">
-        <v>183</v>
+        <v>3</v>
       </c>
       <c r="K21" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -2851,7 +2943,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,MoveInputX,1},{Jump,1,MoveY,1},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,1,SetAction,108}]</v>
+        <v>[{InputX,1,MoveInputX,1},{InputX,0,SetAction,108},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182}]</v>
       </c>
       <c r="L21" t="s">
         <v>36</v>
@@ -2866,16 +2958,16 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="T21" t="s">
         <v>38</v>
@@ -2905,24 +2997,36 @@
         <v>50</v>
       </c>
       <c r="AC21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="s">
         <v>72</v>
       </c>
       <c r="AE21">
-        <v>108</v>
+        <v>183</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI21">
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D22">
         <v>0.8</v>
@@ -2934,13 +3038,16 @@
         <v>0.2</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>183</v>
       </c>
       <c r="K22" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -2950,7 +3057,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,MoveInputX,1},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,1,SetAction,108}]</v>
+        <v>[{InputX,1,MoveInputX,1},{Jump,1,MoveY,1},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,1,SetAction,108}]</v>
       </c>
       <c r="L22" t="s">
         <v>36</v>
@@ -2965,22 +3072,22 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="S22">
-        <v>184</v>
+        <v>1</v>
       </c>
       <c r="T22" t="s">
         <v>38</v>
       </c>
       <c r="U22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="s">
         <v>72</v>
@@ -2989,27 +3096,39 @@
         <v>184</v>
       </c>
       <c r="X22" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y22">
+        <v>-1</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA22">
+        <v>184</v>
+      </c>
+      <c r="AB22" t="s">
         <v>50</v>
       </c>
-      <c r="Y22">
-        <v>1</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA22">
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE22">
         <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D23">
         <v>0.8</v>
@@ -3021,16 +3140,13 @@
         <v>0.2</v>
       </c>
       <c r="G23">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <v>3</v>
       </c>
       <c r="I23">
         <v>3</v>
-      </c>
-      <c r="J23">
-        <v>105</v>
       </c>
       <c r="K23" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -3040,7 +3156,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,MoveInputX,1},{ShrinkEnd,1,MoveY,3}]</v>
+        <v>[{InputX,1,MoveInputX,1},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,1,SetAction,108}]</v>
       </c>
       <c r="L23" t="s">
         <v>36</v>
@@ -3055,16 +3171,862 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
+        <v>72</v>
+      </c>
+      <c r="S23">
+        <v>184</v>
+      </c>
+      <c r="T23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U23">
+        <v>-1</v>
+      </c>
+      <c r="V23" t="s">
+        <v>72</v>
+      </c>
+      <c r="W23">
+        <v>184</v>
+      </c>
+      <c r="X23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA23">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>184</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24">
+        <v>0.8</v>
+      </c>
+      <c r="E24">
+        <v>1.6</v>
+      </c>
+      <c r="F24">
+        <v>0.2</v>
+      </c>
+      <c r="G24">
+        <v>0.1</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>105</v>
+      </c>
+      <c r="K24" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{InputX,1,MoveInputX,1},{ShrinkEnd,1,MoveY,3}]</v>
+      </c>
+      <c r="L24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
         <v>54</v>
       </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="R23" t="s">
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s">
         <v>65</v>
       </c>
-      <c r="S23">
+      <c r="S24">
         <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>201</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.2</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{Frame,120,SetAction,202}]</v>
+      </c>
+      <c r="L25" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25">
+        <v>120</v>
+      </c>
+      <c r="N25" t="s">
+        <v>72</v>
+      </c>
+      <c r="O25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>202</v>
+      </c>
+      <c r="B26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0.2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{Frame,240,SetAction,201}]</v>
+      </c>
+      <c r="L26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26">
+        <v>240</v>
+      </c>
+      <c r="N26" t="s">
+        <v>72</v>
+      </c>
+      <c r="O26">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>301</v>
+      </c>
+      <c r="B27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{JumpValid,1,SetAction,302}]</v>
+      </c>
+      <c r="L27" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>72</v>
+      </c>
+      <c r="O27">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>302</v>
+      </c>
+      <c r="B28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{JumpValid,1,SetAction,301}]</v>
+      </c>
+      <c r="L28" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>72</v>
+      </c>
+      <c r="O28">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>401</v>
+      </c>
+      <c r="B29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{Frame,-1,MoveInputX,0}]</v>
+      </c>
+      <c r="L29" t="s">
+        <v>56</v>
+      </c>
+      <c r="M29">
+        <v>-1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>60</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>402</v>
+      </c>
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>401</v>
+      </c>
+      <c r="K30" s="2" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{Frame,-1,MoveInputX,0}]</v>
+      </c>
+      <c r="L30" t="s">
+        <v>56</v>
+      </c>
+      <c r="M30">
+        <v>-1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>60</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>501</v>
+      </c>
+      <c r="B31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31">
+        <v>3.8</v>
+      </c>
+      <c r="E31">
+        <v>1.8</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{Frame,-1,MoveInputX,0}]</v>
+      </c>
+      <c r="L31" t="s">
+        <v>56</v>
+      </c>
+      <c r="M31">
+        <v>-1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>60</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>502</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{Jump,1,SetAction,503}]</v>
+      </c>
+      <c r="L32" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>72</v>
+      </c>
+      <c r="O32">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>503</v>
+      </c>
+      <c r="B33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{Frame,6,SetAction,501}]</v>
+      </c>
+      <c r="L33" t="s">
+        <v>56</v>
+      </c>
+      <c r="M33">
+        <v>6</v>
+      </c>
+      <c r="N33" t="s">
+        <v>72</v>
+      </c>
+      <c r="O33">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>601</v>
+      </c>
+      <c r="B34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="K34" s="2" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{Walkable,1,MoveLocalX,2},{Walkable,0,MoveLocalX,-2}]</v>
+      </c>
+      <c r="L34" t="s">
+        <v>145</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>62</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34" t="s">
+        <v>62</v>
+      </c>
+      <c r="S34">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>701</v>
+      </c>
+      <c r="B35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{PlayerInSight,1,SetAction,702}]</v>
+      </c>
+      <c r="L35" t="s">
+        <v>148</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>72</v>
+      </c>
+      <c r="O35">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>702</v>
+      </c>
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>703</v>
+      </c>
+      <c r="K36" s="2" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{Frame,-1,MoveInputX,0}]</v>
+      </c>
+      <c r="L36" t="s">
+        <v>56</v>
+      </c>
+      <c r="M36">
+        <v>-1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>60</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>703</v>
+      </c>
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="K37" s="2" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{Frame,15,StalkX,3},{Frame,15,StalkY,3},{Frame,75,SetAction,704}]</v>
+      </c>
+      <c r="L37" t="s">
+        <v>56</v>
+      </c>
+      <c r="M37">
+        <v>15</v>
+      </c>
+      <c r="N37" t="s">
+        <v>149</v>
+      </c>
+      <c r="O37">
+        <v>3</v>
+      </c>
+      <c r="P37" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q37">
+        <v>15</v>
+      </c>
+      <c r="R37" t="s">
+        <v>150</v>
+      </c>
+      <c r="S37">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s">
+        <v>56</v>
+      </c>
+      <c r="U37">
+        <v>75</v>
+      </c>
+      <c r="V37" t="s">
+        <v>72</v>
+      </c>
+      <c r="W37">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>704</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{Frame,120,SetAction,703}]</v>
+      </c>
+      <c r="L38" t="s">
+        <v>56</v>
+      </c>
+      <c r="M38">
+        <v>120</v>
+      </c>
+      <c r="N38" t="s">
+        <v>72</v>
+      </c>
+      <c r="O38">
+        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -3080,13 +4042,13 @@
           <x14:formula1>
             <xm:f>_helper!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>AP3 AL8 AL2:AL3 AH2:AH23 N2:N23 AD2:AD23 Z2:Z23 V2:V23 R2:R23</xm:sqref>
+          <xm:sqref>AP3 AL8 AL2:AL3 N2:N38 AH2:AH38 AD2:AD38 Z2:Z38 R2:R38 V2:V38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{38EFAF22-778F-4724-863A-ECD1104B256A}">
           <x14:formula1>
             <xm:f>_helper!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>AN3 AJ8 AJ2:AJ3 AF2:AF23 P2:P23 AB2:AB23 X2:X23 T2:T23 L2:L23</xm:sqref>
+          <xm:sqref>AN3 AJ8 AJ2:AJ3 AF2:AF38 L2:L38 AB2:AB38 X2:X38 P2:P38 T2:T38</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB4E26D-FA40-49DF-A0EF-8882812DC967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB48525-978E-4252-AA25-F23866AC9AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
@@ -36,6 +36,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={33A83C6D-AC71-4E5C-805C-76E3754A0D7C}</author>
+  </authors>
+  <commentList>
+    <comment ref="AA13" authorId="0" shapeId="0" xr:uid="{33A83C6D-AC71-4E5C-805C-76E3754A0D7C}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    넙버링 맞추기용 1 + 유닛 키 01 +카테고리 00 + 인덱스 001</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="158">
   <si>
@@ -627,7 +645,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,6 +660,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -666,15 +690,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,6 +719,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="민균 김" id="{82A61316-38D9-4C3C-90A6-2C306CF8E2D1}" userId="3b3227c1538f3875" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1075,12 +1102,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="AA13" dT="2024-11-11T00:27:52.08" personId="{82A61316-38D9-4C3C-90A6-2C306CF8E2D1}" id="{33A83C6D-AC71-4E5C-805C-76E3754A0D7C}">
+    <text>넙버링 맞추기용 1 + 유닛 키 01 +카테고리 00 + 인덱스 001</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
   <dimension ref="A1:AQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3301,7 +3336,7 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="K25" s="2" t="str">
+      <c r="K25" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
   IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
@@ -3352,7 +3387,7 @@
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="K26" s="2" t="str">
+      <c r="K26" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
   IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
@@ -3403,7 +3438,7 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="K27" s="2" t="str">
+      <c r="K27" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
   IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
@@ -3454,7 +3489,7 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="K28" s="2" t="str">
+      <c r="K28" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
   IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
@@ -3505,7 +3540,7 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="K29" s="2" t="str">
+      <c r="K29" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
   IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
@@ -3559,7 +3594,7 @@
       <c r="J30">
         <v>401</v>
       </c>
-      <c r="K30" s="2" t="str">
+      <c r="K30" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
   IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
@@ -3610,7 +3645,7 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="K31" s="2" t="str">
+      <c r="K31" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
   IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
@@ -3661,7 +3696,7 @@
       <c r="I32">
         <v>0</v>
       </c>
-      <c r="K32" s="2" t="str">
+      <c r="K32" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
   IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
@@ -3712,7 +3747,7 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="K33" s="2" t="str">
+      <c r="K33" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
   IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
@@ -3763,7 +3798,7 @@
       <c r="I34">
         <v>3</v>
       </c>
-      <c r="K34" s="2" t="str">
+      <c r="K34" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
   IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
@@ -3826,7 +3861,7 @@
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="K35" s="2" t="str">
+      <c r="K35" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
   IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
@@ -3880,7 +3915,7 @@
       <c r="J36">
         <v>703</v>
       </c>
-      <c r="K36" s="2" t="str">
+      <c r="K36" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
   IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
@@ -3931,7 +3966,7 @@
       <c r="I37">
         <v>3</v>
       </c>
-      <c r="K37" s="2" t="str">
+      <c r="K37" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
   IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
@@ -4006,7 +4041,7 @@
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="K38" s="2" t="str">
+      <c r="K38" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
   IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
@@ -4032,8 +4067,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB48525-978E-4252-AA25-F23866AC9AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7707E27F-CD63-4763-BA93-7D52AC5B63C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="158">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -645,7 +645,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,12 +660,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1115,7 +1109,7 @@
   <dimension ref="A1:AQ38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+      <selection activeCell="T11" sqref="T11:W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1439,7 +1433,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,MoveInputX,1},{InputX,0,SetAction,101},{InputY,-1,SetAction,103},{InputY,1,SetAction,108},{Attack,1,SetAction,106},{Run,1,SetAction,107},{OnLand,0,SetAction,105},{JumpValid,1,SetAction,104}]</v>
+        <v>[{InputX,1,MoveInputX,1},{InputX,0,SetAction,101},{InputY,-1,SetAction,103},{InputY,1,SetAction,108},{Run,1,SetAction,107},{Attack,1,SetAction,106},{OnLand,0,SetAction,105},{JumpValid,1,SetAction,104}]</v>
       </c>
       <c r="L3" t="s">
         <v>36</v>
@@ -1490,28 +1484,28 @@
         <v>108</v>
       </c>
       <c r="AB3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE3">
+        <v>107</v>
+      </c>
+      <c r="AF3" t="s">
         <v>46</v>
       </c>
-      <c r="AC3">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE3">
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI3">
         <v>106</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG3">
-        <v>1</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI3">
-        <v>107</v>
       </c>
       <c r="AJ3" t="s">
         <v>50</v>
@@ -1904,7 +1898,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,MoveInputX,2},{Attack,0,SetAction,102},{InputX,0,SetAction,101},{InputY,-1,SetAction,103},{InputY,1,SetAction,108},{OnLand,0,SetAction,105},{JumpValid,1,SetAction,104}]</v>
+        <v>[{InputX,1,MoveInputX,2},{Run,0,SetAction,102},{InputX,0,SetAction,101},{InputY,-1,SetAction,103},{InputY,1,SetAction,108},{OnLand,0,SetAction,105},{JumpValid,1,SetAction,104}]</v>
       </c>
       <c r="L8" t="s">
         <v>36</v>
@@ -1919,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -2201,7 +2195,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,MoveInputX,1},{InputX,0,SetAction,103},{Attack,1,SetAction,133},{OnLand,0,SetAction,105},{JumpValid,1,SetAction,134}]</v>
+        <v>[{InputX,1,MoveInputX,1},{InputX,0,SetAction,103},{Risable,1,SetAction,101},{Attack,1,SetAction,133},{OnLand,0,SetAction,105},{JumpValid,1,SetAction,134}]</v>
       </c>
       <c r="L11" t="s">
         <v>36</v>
@@ -2228,39 +2222,51 @@
         <v>103</v>
       </c>
       <c r="T11" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11" t="s">
+        <v>72</v>
+      </c>
+      <c r="W11">
+        <v>101</v>
+      </c>
+      <c r="X11" t="s">
         <v>46</v>
       </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="V11" t="s">
-        <v>72</v>
-      </c>
-      <c r="W11">
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA11">
         <v>133</v>
       </c>
-      <c r="X11" t="s">
+      <c r="AB11" t="s">
         <v>50</v>
       </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA11">
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE11">
         <v>105</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AF11" t="s">
         <v>44</v>
       </c>
-      <c r="AC11">
-        <v>1</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE11">
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI11">
         <v>134</v>
       </c>
     </row>
@@ -2345,6 +2351,9 @@
       </c>
       <c r="I13">
         <v>0.1</v>
+      </c>
+      <c r="J13">
+        <v>101</v>
       </c>
       <c r="K13" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -4078,13 +4087,13 @@
           <x14:formula1>
             <xm:f>_helper!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>AP3 AL8 AL2:AL3 N2:N38 AH2:AH38 AD2:AD38 Z2:Z38 R2:R38 V2:V38</xm:sqref>
+          <xm:sqref>AP3 AL8 AL2:AL3 N2:N38 AH2:AH38 R2:R38 AD2:AD38 Z2:Z38 V2:V38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{38EFAF22-778F-4724-863A-ECD1104B256A}">
           <x14:formula1>
             <xm:f>_helper!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>AN3 AJ8 AJ2:AJ3 AF2:AF38 L2:L38 AB2:AB38 X2:X38 P2:P38 T2:T38</xm:sqref>
+          <xm:sqref>AN3 AJ8 AJ2:AJ3 AF2:AF38 L2:L38 P2:P38 AB2:AB38 X2:X38 T2:T38</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\Documents\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7707E27F-CD63-4763-BA93-7D52AC5B63C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EE7DA6-D700-486C-97BA-49ECAE52F267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="159">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -639,6 +639,9 @@
   <si>
     <t>집게 붙잡힘</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stretch</t>
   </si>
 </sst>
 </file>
@@ -1108,54 +1111,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
   <dimension ref="A1:AQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11:W11"/>
+    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" customWidth="1"/>
     <col min="4" max="6" width="4.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.625" customWidth="1"/>
-    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.59765625" customWidth="1"/>
+    <col min="12" max="12" width="7.09765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.09765625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.69921875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" s="1" customFormat="1" ht="92.4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +1289,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>101</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>102</v>
       </c>
@@ -1532,7 +1535,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>103</v>
       </c>
@@ -1631,7 +1634,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1709,7 +1712,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>105</v>
       </c>
@@ -1808,7 +1811,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>106</v>
       </c>
@@ -1862,7 +1865,7 @@
         <v>10100001</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>107</v>
       </c>
@@ -1985,7 +1988,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>108</v>
       </c>
@@ -2021,37 +2024,37 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,SetAction,181},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182}]</v>
+        <v>[{InputY,1,Stretch,1},{InputX,1,SetAction,181},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182}]</v>
       </c>
       <c r="L9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>158</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
         <v>36</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>72</v>
-      </c>
-      <c r="O9">
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>72</v>
+      </c>
+      <c r="S9">
         <v>181</v>
-      </c>
-      <c r="P9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9" t="s">
-        <v>72</v>
-      </c>
-      <c r="S9">
-        <v>184</v>
       </c>
       <c r="T9" t="s">
         <v>38</v>
       </c>
       <c r="U9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="s">
         <v>72</v>
@@ -2060,31 +2063,43 @@
         <v>184</v>
       </c>
       <c r="X9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y9">
+        <v>-1</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA9">
+        <v>184</v>
+      </c>
+      <c r="AB9" t="s">
         <v>50</v>
       </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA9">
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE9">
         <v>183</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AF9" t="s">
         <v>44</v>
       </c>
-      <c r="AC9">
-        <v>1</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE9">
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI9">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>109</v>
       </c>
@@ -2159,7 +2174,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>131</v>
       </c>
@@ -2270,7 +2285,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>132</v>
       </c>
@@ -2324,7 +2339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>133</v>
       </c>
@@ -2414,7 +2429,7 @@
         <v>10100001</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>134</v>
       </c>
@@ -2516,7 +2531,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>151</v>
       </c>
@@ -2582,7 +2597,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>152</v>
       </c>
@@ -2636,7 +2651,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>153</v>
       </c>
@@ -2723,7 +2738,7 @@
         <v>10100001</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>154</v>
       </c>
@@ -2810,7 +2825,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>155</v>
       </c>
@@ -2885,7 +2900,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>156</v>
       </c>
@@ -2951,7 +2966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>181</v>
       </c>
@@ -3062,7 +3077,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>182</v>
       </c>
@@ -3164,7 +3179,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>183</v>
       </c>
@@ -3251,7 +3266,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>184</v>
       </c>
@@ -3317,7 +3332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>201</v>
       </c>
@@ -3368,7 +3383,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>202</v>
       </c>
@@ -3419,7 +3434,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>301</v>
       </c>
@@ -3470,7 +3485,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>302</v>
       </c>
@@ -3521,7 +3536,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>401</v>
       </c>
@@ -3572,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>402</v>
       </c>
@@ -3626,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>501</v>
       </c>
@@ -3677,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>502</v>
       </c>
@@ -3728,7 +3743,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>503</v>
       </c>
@@ -3779,7 +3794,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>601</v>
       </c>
@@ -3842,7 +3857,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>701</v>
       </c>
@@ -3893,7 +3908,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>702</v>
       </c>
@@ -3947,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>703</v>
       </c>
@@ -4022,7 +4037,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>704</v>
       </c>
@@ -4087,13 +4102,13 @@
           <x14:formula1>
             <xm:f>_helper!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>AP3 AL8 AL2:AL3 N2:N38 AH2:AH38 R2:R38 AD2:AD38 Z2:Z38 V2:V38</xm:sqref>
+          <xm:sqref>AP3 AL8 AL2:AL3 N2:N38 V2:V38 Z2:Z38 AD2:AD38 R2:R38 AH2:AH38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{38EFAF22-778F-4724-863A-ECD1104B256A}">
           <x14:formula1>
             <xm:f>_helper!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>AN3 AJ8 AJ2:AJ3 AF2:AF38 L2:L38 P2:P38 AB2:AB38 X2:X38 T2:T38</xm:sqref>
+          <xm:sqref>AN3 AJ8 AJ2:AJ3 L2:L38 T2:T38 X2:X38 AB2:AB38 P2:P38 AF2:AF38</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4109,13 +4124,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -4123,7 +4138,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -4131,7 +4146,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -4139,7 +4154,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -4147,7 +4162,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -4155,7 +4170,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -4163,7 +4178,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -4171,7 +4186,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -4179,7 +4194,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -4187,22 +4202,22 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>59</v>
       </c>

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\Documents\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EE7DA6-D700-486C-97BA-49ECAE52F267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A6FEB8-E10F-4E37-B9B4-84C4FA5C70AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,19 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={D2C364CD-6851-42E7-BDB6-24424CEEE412}</author>
     <author>tc={33A83C6D-AC71-4E5C-805C-76E3754A0D7C}</author>
   </authors>
   <commentList>
-    <comment ref="AA13" authorId="0" shapeId="0" xr:uid="{33A83C6D-AC71-4E5C-805C-76E3754A0D7C}">
+    <comment ref="W13" authorId="0" shapeId="0" xr:uid="{D2C364CD-6851-42E7-BDB6-24424CEEE412}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    넙버링 맞추기용 1 + 유닛 키 01 +카테고리 00 + 인덱스 001</t>
+      </text>
+    </comment>
+    <comment ref="AA13" authorId="1" shapeId="0" xr:uid="{33A83C6D-AC71-4E5C-805C-76E3754A0D7C}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -55,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="165">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -642,13 +651,34 @@
   </si>
   <si>
     <t>Stretch</t>
+  </si>
+  <si>
+    <t>InputYDown</t>
+  </si>
+  <si>
+    <t>InputYDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JumpDown</t>
+  </si>
+  <si>
+    <t>JumpDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,6 +693,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1101,6 +1137,9 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="W13" dT="2024-11-11T00:27:52.08" personId="{82A61316-38D9-4C3C-90A6-2C306CF8E2D1}" id="{D2C364CD-6851-42E7-BDB6-24424CEEE412}">
+    <text>넙버링 맞추기용 1 + 유닛 키 01 +카테고리 00 + 인덱스 001</text>
+  </threadedComment>
   <threadedComment ref="AA13" dT="2024-11-11T00:27:52.08" personId="{82A61316-38D9-4C3C-90A6-2C306CF8E2D1}" id="{33A83C6D-AC71-4E5C-805C-76E3754A0D7C}">
     <text>넙버링 맞추기용 1 + 유닛 키 01 +카테고리 00 + 인덱스 001</text>
   </threadedComment>
@@ -1111,54 +1150,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
   <dimension ref="A1:AQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="20.19921875" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
     <col min="4" max="6" width="4.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.59765625" customWidth="1"/>
-    <col min="12" max="12" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.625" customWidth="1"/>
+    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.75" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" ht="92.4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:43" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +1328,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -1400,7 +1439,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -1535,7 +1574,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -1634,7 +1673,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1660,7 +1699,7 @@
         <v>6</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J5">
         <v>105</v>
@@ -1673,7 +1712,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,MoveInputX,1},{Jump,1,MoveY,3},{OnLand,1,SetAction,101}]</v>
+        <v>[{InputX,1,MoveInputX,1},{Jump,1,MoveY,6},{Jump,0,SetAction,105},{OnLand,1,SetAction,101}]</v>
       </c>
       <c r="L5" t="s">
         <v>36</v>
@@ -1697,22 +1736,34 @@
         <v>65</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>72</v>
+      </c>
+      <c r="W5">
+        <v>105</v>
+      </c>
+      <c r="X5" t="s">
         <v>50</v>
       </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5" t="s">
-        <v>72</v>
-      </c>
-      <c r="W5">
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA5">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>105</v>
       </c>
@@ -1735,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -1748,7 +1799,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,MoveInputX,1},{InputY,-1,SetAction,152},{Attack,1,SetAction,151},{OnWall,1,SetAction,155},{OnLand,1,SetAction,101}]</v>
+        <v>[{InputX,1,MoveInputX,1},{InputYDown,-1,SetAction,152},{Attack,1,SetAction,151},{OnWall,1,SetAction,155},{OnLand,1,SetAction,101}]</v>
       </c>
       <c r="L6" t="s">
         <v>36</v>
@@ -1763,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="Q6">
         <v>-1</v>
@@ -1811,7 +1862,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>106</v>
       </c>
@@ -1865,7 +1916,7 @@
         <v>10100001</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>107</v>
       </c>
@@ -1988,7 +2039,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>108</v>
       </c>
@@ -2099,7 +2150,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>109</v>
       </c>
@@ -2174,7 +2225,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>131</v>
       </c>
@@ -2285,7 +2336,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>132</v>
       </c>
@@ -2305,7 +2356,7 @@
         <v>0.2</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2339,7 +2390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>133</v>
       </c>
@@ -2378,7 +2429,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,1,MoveLocalX,6},{InputX,0,MoveLocalX,0.01},{InputX,1,MoveLocalX,0.01},{Frame,1,Spawn,10100001}]</v>
+        <v>[{Frame,1,MoveLocalX,6},{None,1,MoveLocalX,0.01},{Frame,1,Spawn,10100001}]</v>
       </c>
       <c r="L13" t="s">
         <v>56</v>
@@ -2393,10 +2444,10 @@
         <v>6</v>
       </c>
       <c r="P13" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="s">
         <v>62</v>
@@ -2405,31 +2456,19 @@
         <v>0.01</v>
       </c>
       <c r="T13" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="U13">
         <v>1</v>
       </c>
       <c r="V13" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="W13">
-        <v>0.01</v>
-      </c>
-      <c r="X13" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA13">
         <v>10100001</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>134</v>
       </c>
@@ -2468,7 +2507,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,1,MoveLocalX,6},{Frame,1,MoveY,3},{InputX,0,MoveLocalX,0.01},{InputX,1,MoveLocalX,0.01},{OnLand,1,SetAction,101}]</v>
+        <v>[{Frame,1,MoveLocalX,6},{Frame,1,MoveY,3},{None,1,MoveLocalX,0.01},{OnLand,1,SetAction,101}]</v>
       </c>
       <c r="L14" t="s">
         <v>56</v>
@@ -2495,10 +2534,10 @@
         <v>3</v>
       </c>
       <c r="T14" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="s">
         <v>62</v>
@@ -2507,31 +2546,19 @@
         <v>0.01</v>
       </c>
       <c r="X14" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="Y14">
         <v>1</v>
       </c>
       <c r="Z14" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="AA14">
-        <v>0.01</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC14">
-        <v>1</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE14">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>151</v>
       </c>
@@ -2597,7 +2624,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>152</v>
       </c>
@@ -2651,7 +2678,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>153</v>
       </c>
@@ -2687,7 +2714,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,1,MoveLocalX,6},{InputX,0,MoveLocalX,0.01},{InputX,1,MoveLocalX,0.01},{Frame,1,Spawn,10100001}]</v>
+        <v>[{Frame,1,MoveLocalX,6},{None,1,MoveLocalX,0.01},{Frame,1,Spawn,10100001},{OnWall,1,SetAction,155},{OnLand,1,SetAction,101}]</v>
       </c>
       <c r="L17" t="s">
         <v>56</v>
@@ -2702,10 +2729,10 @@
         <v>6</v>
       </c>
       <c r="P17" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="s">
         <v>62</v>
@@ -2714,31 +2741,43 @@
         <v>0.01</v>
       </c>
       <c r="T17" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="U17">
         <v>1</v>
       </c>
       <c r="V17" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="W17">
-        <v>0.01</v>
+        <v>10100001</v>
       </c>
       <c r="X17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Y17">
         <v>1</v>
       </c>
       <c r="Z17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AA17">
-        <v>10100001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.4">
+        <v>155</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE17">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>154</v>
       </c>
@@ -2774,13 +2813,13 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,0,MoveLocalX,6},{InputX,1,MoveLocalX,6},{InputX,0,MoveY,-6},{InputX,1,MoveY,-6}]</v>
+        <v>[{None,1,MoveLocalX,6},{None,1,MoveY,-6},{OnWall,1,SetAction,155},{OnLand,1,SetAction,101}]</v>
       </c>
       <c r="L18" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
         <v>62</v>
@@ -2789,43 +2828,43 @@
         <v>6</v>
       </c>
       <c r="P18" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="Q18">
         <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="S18">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="T18" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="W18">
-        <v>-6</v>
+        <v>155</v>
       </c>
       <c r="X18" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="Y18">
         <v>1</v>
       </c>
       <c r="Z18" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="AA18">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>155</v>
       </c>
@@ -2861,10 +2900,10 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{JumpValid,1,SetAction,156},{OnWall,1,SetAction,155},{OnLand,1,SetAction,101}]</v>
+        <v>[{JumpDown,1,SetAction,156},{OnLand,1,SetAction,101}]</v>
       </c>
       <c r="L19" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -2876,7 +2915,7 @@
         <v>156</v>
       </c>
       <c r="P19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -2885,22 +2924,10 @@
         <v>72</v>
       </c>
       <c r="S19">
-        <v>155</v>
-      </c>
-      <c r="T19" t="s">
-        <v>50</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19" t="s">
-        <v>72</v>
-      </c>
-      <c r="W19">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>156</v>
       </c>
@@ -2923,7 +2950,7 @@
         <v>2</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I20">
         <v>3</v>
@@ -2939,22 +2966,22 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,1,MoveLocalX,-3},{Frame,1,MoveY,3}]</v>
+        <v>[{Frame,0,MoveLocalX,-60},{None,1,MoveY,3},{None,1,MoveLocalX,9}]</v>
       </c>
       <c r="L20" t="s">
         <v>56</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="s">
         <v>62</v>
       </c>
       <c r="O20">
-        <v>-3</v>
+        <v>-60</v>
       </c>
       <c r="P20" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -2965,8 +2992,20 @@
       <c r="S20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="T20" t="s">
+        <v>163</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
+        <v>62</v>
+      </c>
+      <c r="W20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>181</v>
       </c>
@@ -3002,16 +3041,16 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,MoveInputX,1},{InputX,0,SetAction,108},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182}]</v>
+        <v>[{InputY,1,Stretch,1},{InputX,1,MoveInputX,1},{InputX,0,SetAction,108},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182}]</v>
       </c>
       <c r="L21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M21">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -3020,31 +3059,31 @@
         <v>36</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
+        <v>36</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21" t="s">
+        <v>72</v>
+      </c>
+      <c r="W21">
         <v>108</v>
-      </c>
-      <c r="T21" t="s">
-        <v>38</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21" t="s">
-        <v>72</v>
-      </c>
-      <c r="W21">
-        <v>184</v>
       </c>
       <c r="X21" t="s">
         <v>38</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="s">
         <v>72</v>
@@ -3053,31 +3092,43 @@
         <v>184</v>
       </c>
       <c r="AB21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC21">
+        <v>-1</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE21">
+        <v>184</v>
+      </c>
+      <c r="AF21" t="s">
         <v>50</v>
       </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE21">
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI21">
         <v>183</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AJ21" t="s">
         <v>44</v>
       </c>
-      <c r="AG21">
-        <v>1</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI21">
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM21">
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>182</v>
       </c>
@@ -3116,49 +3167,49 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,MoveInputX,1},{Jump,1,MoveY,1},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,1,SetAction,108}]</v>
+        <v>[{InputY,1,Stretch,1},{InputX,1,MoveInputX,1},{Jump,1,MoveY,1},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,1,SetAction,108}]</v>
       </c>
       <c r="L22" t="s">
+        <v>38</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>158</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
         <v>36</v>
       </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s">
         <v>60</v>
       </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22" t="s">
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
         <v>42</v>
       </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="R22" t="s">
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
         <v>65</v>
       </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
-      <c r="T22" t="s">
-        <v>38</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22" t="s">
-        <v>72</v>
-      </c>
       <c r="W22">
-        <v>184</v>
+        <v>1</v>
       </c>
       <c r="X22" t="s">
         <v>38</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="s">
         <v>72</v>
@@ -3167,19 +3218,31 @@
         <v>184</v>
       </c>
       <c r="AB22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC22">
+        <v>-1</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE22">
+        <v>184</v>
+      </c>
+      <c r="AF22" t="s">
         <v>50</v>
       </c>
-      <c r="AC22">
-        <v>1</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE22">
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI22">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>183</v>
       </c>
@@ -3215,37 +3278,37 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,MoveInputX,1},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,1,SetAction,108}]</v>
+        <v>[{InputY,1,Stretch,1},{InputX,1,MoveInputX,1},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,1,SetAction,108}]</v>
       </c>
       <c r="L23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>158</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
         <v>36</v>
       </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s">
         <v>60</v>
       </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23" t="s">
-        <v>72</v>
-      </c>
       <c r="S23">
-        <v>184</v>
+        <v>1</v>
       </c>
       <c r="T23" t="s">
         <v>38</v>
       </c>
       <c r="U23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="s">
         <v>72</v>
@@ -3254,19 +3317,31 @@
         <v>184</v>
       </c>
       <c r="X23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA23">
+        <v>184</v>
+      </c>
+      <c r="AB23" t="s">
         <v>50</v>
       </c>
-      <c r="Y23">
-        <v>1</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA23">
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE23">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>184</v>
       </c>
@@ -3332,7 +3407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>201</v>
       </c>
@@ -3383,7 +3458,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>202</v>
       </c>
@@ -3434,7 +3509,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>301</v>
       </c>
@@ -3485,7 +3560,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>302</v>
       </c>
@@ -3536,7 +3611,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>401</v>
       </c>
@@ -3587,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>402</v>
       </c>
@@ -3641,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>501</v>
       </c>
@@ -3692,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>502</v>
       </c>
@@ -3743,7 +3818,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>503</v>
       </c>
@@ -3794,7 +3869,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>601</v>
       </c>
@@ -3857,7 +3932,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>701</v>
       </c>
@@ -3908,7 +3983,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>702</v>
       </c>
@@ -3962,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>703</v>
       </c>
@@ -3985,10 +4060,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K37" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -3998,37 +4073,37 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,15,StalkX,3},{Frame,15,StalkY,3},{Frame,75,SetAction,704}]</v>
+        <v>[{None,1,StalkX,9},{None,1,StalkY,9},{Frame,60,SetAction,704}]</v>
       </c>
       <c r="L37" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
         <v>149</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P37" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="R37" t="s">
         <v>150</v>
       </c>
       <c r="S37">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T37" t="s">
         <v>56</v>
       </c>
       <c r="U37">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="V37" t="s">
         <v>72</v>
@@ -4037,7 +4112,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>704</v>
       </c>
@@ -4073,13 +4148,13 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,120,SetAction,703}]</v>
+        <v>[{Frame,180,SetAction,703}]</v>
       </c>
       <c r="L38" t="s">
         <v>56</v>
       </c>
       <c r="M38">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N38" t="s">
         <v>72</v>
@@ -4102,13 +4177,13 @@
           <x14:formula1>
             <xm:f>_helper!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>AP3 AL8 AL2:AL3 N2:N38 V2:V38 Z2:Z38 AD2:AD38 R2:R38 AH2:AH38</xm:sqref>
+          <xm:sqref>AP3 AL8 AL21:AL23 AL2:AL3 AD2:AD38 N2:N38 AH2:AH38 R2:R38 V2:V38 Z2:Z38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{38EFAF22-778F-4724-863A-ECD1104B256A}">
           <x14:formula1>
             <xm:f>_helper!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>AN3 AJ8 AJ2:AJ3 L2:L38 T2:T38 X2:X38 AB2:AB38 P2:P38 AF2:AF38</xm:sqref>
+          <xm:sqref>AN3 AJ8 AJ21:AJ23 AJ2:AJ3 AB2:AB38 L2:L38 AF2:AF38 P2:P38 T2:T38 X2:X38</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4118,107 +4193,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65113C7D-484D-4DF3-9D02-02492F57BDB8}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>59</v>
       </c>
     </row>

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A6FEB8-E10F-4E37-B9B4-84C4FA5C70AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4394A41-2D7B-4251-B81E-76194210AE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
@@ -39,19 +39,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={D2C364CD-6851-42E7-BDB6-24424CEEE412}</author>
-    <author>tc={33A83C6D-AC71-4E5C-805C-76E3754A0D7C}</author>
+    <author>tc={E66A3162-0F90-431A-9409-B94D42850838}</author>
   </authors>
   <commentList>
-    <comment ref="W13" authorId="0" shapeId="0" xr:uid="{D2C364CD-6851-42E7-BDB6-24424CEEE412}">
-      <text>
-        <t>[스레드 댓글]
-사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
-댓글:
-    넙버링 맞추기용 1 + 유닛 키 01 +카테고리 00 + 인덱스 001</t>
-      </text>
-    </comment>
-    <comment ref="AA13" authorId="1" shapeId="0" xr:uid="{33A83C6D-AC71-4E5C-805C-76E3754A0D7C}">
+    <comment ref="S13" authorId="0" shapeId="0" xr:uid="{E66A3162-0F90-431A-9409-B94D42850838}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -64,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="164">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,9 +246,6 @@
   <si>
     <t>OnWall</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShrinkEnd</t>
   </si>
   <si>
     <t>ShrinkEnd</t>
@@ -1137,10 +1125,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="W13" dT="2024-11-11T00:27:52.08" personId="{82A61316-38D9-4C3C-90A6-2C306CF8E2D1}" id="{D2C364CD-6851-42E7-BDB6-24424CEEE412}">
-    <text>넙버링 맞추기용 1 + 유닛 키 01 +카테고리 00 + 인덱스 001</text>
-  </threadedComment>
-  <threadedComment ref="AA13" dT="2024-11-11T00:27:52.08" personId="{82A61316-38D9-4C3C-90A6-2C306CF8E2D1}" id="{33A83C6D-AC71-4E5C-805C-76E3754A0D7C}">
+  <threadedComment ref="S13" dT="2024-11-11T00:27:52.08" personId="{82A61316-38D9-4C3C-90A6-2C306CF8E2D1}" id="{E66A3162-0F90-431A-9409-B94D42850838}">
     <text>넙버링 맞추기용 1 + 유닛 키 01 +카테고리 00 + 인덱스 001</text>
   </threadedComment>
 </ThreadedComments>
@@ -1150,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
   <dimension ref="A1:AQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1292,40 +1277,40 @@
         <v>35</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="AI1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
@@ -1333,28 +1318,28 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K2" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -1373,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O2">
         <v>102</v>
@@ -1385,7 +1370,7 @@
         <v>-1</v>
       </c>
       <c r="R2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S2">
         <v>103</v>
@@ -1397,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W2">
         <v>108</v>
@@ -1409,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="Z2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA2">
         <v>106</v>
@@ -1421,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="AD2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE2">
         <v>105</v>
@@ -1433,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="AH2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI2">
         <v>104</v>
@@ -1444,28 +1429,28 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K3" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -1484,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -1496,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S3">
         <v>101</v>
@@ -1508,7 +1493,7 @@
         <v>-1</v>
       </c>
       <c r="V3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W3">
         <v>103</v>
@@ -1520,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="Z3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA3">
         <v>108</v>
@@ -1532,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="AD3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE3">
         <v>107</v>
@@ -1544,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI3">
         <v>106</v>
@@ -1556,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AM3">
         <v>105</v>
@@ -1568,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="AP3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AQ3">
         <v>104</v>
@@ -1579,28 +1564,28 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K4" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -1619,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O4">
         <v>101</v>
@@ -1631,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S4">
         <v>131</v>
@@ -1643,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W4">
         <v>133</v>
@@ -1655,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Z4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA4">
         <v>105</v>
@@ -1667,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="AD4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE4">
         <v>132</v>
@@ -1678,16 +1663,16 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1696,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <v>6</v>
@@ -1712,7 +1697,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,MoveInputX,1},{Jump,1,MoveY,6},{Jump,0,SetAction,105},{OnLand,1,SetAction,101}]</v>
+        <v>[{InputX,1,MoveInputX,0.05},{Jump,1,MoveY,6},{Jump,0,SetAction,105},{OnLand,1,SetAction,101}]</v>
       </c>
       <c r="L5" t="s">
         <v>36</v>
@@ -1721,10 +1706,10 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="P5" t="s">
         <v>42</v>
@@ -1733,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S5">
         <v>6</v>
@@ -1745,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W5">
         <v>105</v>
@@ -1757,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="Z5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA5">
         <v>101</v>
@@ -1768,16 +1753,16 @@
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F6">
         <v>0.2</v>
@@ -1786,10 +1771,10 @@
         <v>2</v>
       </c>
       <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
         <v>6</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
       </c>
       <c r="K6" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -1799,7 +1784,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,MoveInputX,1},{InputYDown,-1,SetAction,152},{Attack,1,SetAction,151},{OnWall,1,SetAction,155},{OnLand,1,SetAction,101}]</v>
+        <v>[{InputX,1,MoveInputX,0.05},{InputYDown,-1,SetAction,152},{Attack,1,SetAction,151},{OnWall,1,SetAction,155},{OnLand,1,SetAction,101}]</v>
       </c>
       <c r="L6" t="s">
         <v>36</v>
@@ -1808,19 +1793,19 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q6">
         <v>-1</v>
       </c>
       <c r="R6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S6">
         <v>152</v>
@@ -1832,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="V6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W6">
         <v>151</v>
@@ -1844,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="Z6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA6">
         <v>155</v>
@@ -1856,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="AD6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE6">
         <v>101</v>
@@ -1867,28 +1852,28 @@
         <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J7">
         <v>101</v>
@@ -1904,13 +1889,13 @@
         <v>[{Frame,5,Spawn,10100001}]</v>
       </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M7">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O7">
         <v>10100001</v>
@@ -1921,28 +1906,28 @@
         <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F8">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
         <v>6</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
       </c>
       <c r="K8" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -1961,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O8">
         <v>2</v>
@@ -1973,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S8">
         <v>102</v>
@@ -1985,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W8">
         <v>101</v>
@@ -1997,7 +1982,7 @@
         <v>-1</v>
       </c>
       <c r="Z8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA8">
         <v>103</v>
@@ -2009,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="AD8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE8">
         <v>108</v>
@@ -2021,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AH8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI8">
         <v>105</v>
@@ -2033,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="AL8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AM8">
         <v>104</v>
@@ -2044,28 +2029,28 @@
         <v>108</v>
       </c>
       <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
         <v>102</v>
       </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
       <c r="D9">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K9" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -2075,7 +2060,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputY,1,Stretch,1},{InputX,1,SetAction,181},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182}]</v>
+        <v>[{InputY,1,Stretch,0.2},{InputX,1,SetAction,181},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182}]</v>
       </c>
       <c r="L9" t="s">
         <v>38</v>
@@ -2084,10 +2069,10 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="P9" t="s">
         <v>36</v>
@@ -2096,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S9">
         <v>181</v>
@@ -2108,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W9">
         <v>184</v>
@@ -2120,7 +2105,7 @@
         <v>-1</v>
       </c>
       <c r="Z9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA9">
         <v>184</v>
@@ -2132,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="AD9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE9">
         <v>183</v>
@@ -2144,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="AH9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI9">
         <v>182</v>
@@ -2155,28 +2140,28 @@
         <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K10" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -2195,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O10">
         <v>104</v>
@@ -2207,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -2219,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W10">
         <v>0.1</v>
@@ -2230,28 +2215,28 @@
         <v>131</v>
       </c>
       <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
         <v>90</v>
       </c>
-      <c r="C11" t="s">
-        <v>91</v>
-      </c>
       <c r="D11">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K11" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -2270,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -2282,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S11">
         <v>103</v>
@@ -2294,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="V11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W11">
         <v>101</v>
@@ -2306,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="Z11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA11">
         <v>133</v>
@@ -2318,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="AD11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE11">
         <v>105</v>
@@ -2330,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="AH11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI11">
         <v>134</v>
@@ -2341,28 +2326,28 @@
         <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E12">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F12">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J12">
         <v>105</v>
@@ -2375,19 +2360,19 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,1,MoveY,6}]</v>
+        <v>[{Frame,1,MoveY,18}]</v>
       </c>
       <c r="L12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O12">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.3">
@@ -2395,31 +2380,31 @@
         <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E13">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F13">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G13">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I13">
-        <v>0.1</v>
+        <v>9</v>
       </c>
       <c r="J13">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K13" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -2429,42 +2414,30 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,1,MoveLocalX,6},{None,1,MoveLocalX,0.01},{Frame,1,Spawn,10100001}]</v>
+        <v>[{None,1,MoveLocalX,12},{Frame,1,Spawn,10100001}]</v>
       </c>
       <c r="L13" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P13" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="Q13">
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="S13">
-        <v>0.01</v>
-      </c>
-      <c r="T13" t="s">
-        <v>56</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13" t="s">
-        <v>68</v>
-      </c>
-      <c r="W13">
         <v>10100001</v>
       </c>
     </row>
@@ -2473,31 +2446,31 @@
         <v>134</v>
       </c>
       <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
         <v>94</v>
       </c>
-      <c r="C14" t="s">
-        <v>95</v>
-      </c>
       <c r="D14">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E14">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F14">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J14">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K14" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -2507,55 +2480,31 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,1,MoveLocalX,6},{Frame,1,MoveY,3},{None,1,MoveLocalX,0.01},{OnLand,1,SetAction,101}]</v>
+        <v>[{None,1,MoveLocalX,15},{Frame,0,MoveY,9}]</v>
       </c>
       <c r="L14" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O14">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="P14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S14">
-        <v>3</v>
-      </c>
-      <c r="T14" t="s">
-        <v>163</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-      <c r="V14" t="s">
-        <v>62</v>
-      </c>
-      <c r="W14">
-        <v>0.01</v>
-      </c>
-      <c r="X14" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA14">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.3">
@@ -2563,28 +2512,28 @@
         <v>151</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E15">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F15">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G15">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I15">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>105</v>
@@ -2600,13 +2549,13 @@
         <v>[{Frame,5,Spawn,10100001},{OnLand,1,SetAction,101}]</v>
       </c>
       <c r="L15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M15">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O15">
         <v>10100001</v>
@@ -2618,7 +2567,7 @@
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S15">
         <v>101</v>
@@ -2629,19 +2578,19 @@
         <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E16">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F16">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2672,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O16">
         <v>153</v>
@@ -2683,28 +2632,28 @@
         <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E17">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F17">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G17">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I17">
-        <v>0.1</v>
+        <v>9</v>
       </c>
       <c r="K17" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -2714,40 +2663,40 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,1,MoveLocalX,6},{None,1,MoveLocalX,0.01},{Frame,1,Spawn,10100001},{OnWall,1,SetAction,155},{OnLand,1,SetAction,101}]</v>
+        <v>[{Frame,1,MoveLocalX,12},{None,1,MoveLocalX,0.01},{Frame,1,Spawn,10100001},{OnWall,1,SetAction,155},{OnLand,1,SetAction,101}]</v>
       </c>
       <c r="L17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O17">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S17">
         <v>0.01</v>
       </c>
       <c r="T17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U17">
         <v>1</v>
       </c>
       <c r="V17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W17">
         <v>10100001</v>
@@ -2759,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="Z17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA17">
         <v>155</v>
@@ -2771,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="AD17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE17">
         <v>101</v>
@@ -2782,25 +2731,25 @@
         <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E18">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F18">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I18">
         <v>6</v>
@@ -2813,31 +2762,31 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{None,1,MoveLocalX,6},{None,1,MoveY,-6},{OnWall,1,SetAction,155},{OnLand,1,SetAction,101}]</v>
+        <v>[{None,1,MoveLocalX,12},{None,1,MoveY,-9},{OnWall,1,SetAction,155},{OnLand,1,SetAction,101}]</v>
       </c>
       <c r="L18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M18">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q18">
         <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S18">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="T18" t="s">
         <v>52</v>
@@ -2846,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="V18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W18">
         <v>155</v>
@@ -2858,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="Z18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA18">
         <v>101</v>
@@ -2869,19 +2818,19 @@
         <v>155</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E19">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F19">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2890,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K19" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -2903,13 +2852,13 @@
         <v>[{JumpDown,1,SetAction,156},{OnLand,1,SetAction,101}]</v>
       </c>
       <c r="L19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O19">
         <v>156</v>
@@ -2921,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="R19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S19">
         <v>101</v>
@@ -2932,19 +2881,19 @@
         <v>156</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E20">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F20">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2953,7 +2902,7 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J20">
         <v>105</v>
@@ -2966,40 +2915,40 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,0,MoveLocalX,-60},{None,1,MoveY,3},{None,1,MoveLocalX,9}]</v>
+        <v>[{Frame,0,MoveLocalX,-18},{None,1,MoveY,9},{None,1,MoveLocalX,9}]</v>
       </c>
       <c r="L20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20">
-        <v>-60</v>
+        <v>-18</v>
       </c>
       <c r="P20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q20">
         <v>1</v>
       </c>
       <c r="R20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U20">
         <v>1</v>
       </c>
       <c r="V20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W20">
         <v>9</v>
@@ -3010,28 +2959,28 @@
         <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E21">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F21">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K21" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -3041,7 +2990,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputY,1,Stretch,1},{InputX,1,MoveInputX,1},{InputX,0,SetAction,108},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182}]</v>
+        <v>[{InputY,1,Stretch,0.2},{InputX,1,MoveInputX,1},{InputX,0,SetAction,108},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182}]</v>
       </c>
       <c r="L21" t="s">
         <v>38</v>
@@ -3050,10 +2999,10 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="P21" t="s">
         <v>36</v>
@@ -3062,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -3074,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W21">
         <v>108</v>
@@ -3086,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="Z21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA21">
         <v>184</v>
@@ -3098,7 +3047,7 @@
         <v>-1</v>
       </c>
       <c r="AD21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE21">
         <v>184</v>
@@ -3110,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="AH21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI21">
         <v>183</v>
@@ -3122,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="AL21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AM21">
         <v>182</v>
@@ -3133,28 +3082,28 @@
         <v>182</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E22">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F22">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J22">
         <v>183</v>
@@ -3167,7 +3116,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputY,1,Stretch,1},{InputX,1,MoveInputX,1},{Jump,1,MoveY,1},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,1,SetAction,108}]</v>
+        <v>[{InputY,1,Stretch,0.2},{InputX,1,MoveInputX,0.05},{Jump,1,MoveY,1},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,1,SetAction,108}]</v>
       </c>
       <c r="L22" t="s">
         <v>38</v>
@@ -3176,10 +3125,10 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="P22" t="s">
         <v>36</v>
@@ -3188,10 +3137,10 @@
         <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="T22" t="s">
         <v>42</v>
@@ -3200,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W22">
         <v>1</v>
@@ -3212,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="Z22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA22">
         <v>184</v>
@@ -3224,7 +3173,7 @@
         <v>-1</v>
       </c>
       <c r="AD22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE22">
         <v>184</v>
@@ -3236,7 +3185,7 @@
         <v>1</v>
       </c>
       <c r="AH22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI22">
         <v>108</v>
@@ -3247,28 +3196,28 @@
         <v>183</v>
       </c>
       <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" t="s">
         <v>117</v>
       </c>
-      <c r="C23" t="s">
-        <v>118</v>
-      </c>
       <c r="D23">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E23">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F23">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K23" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -3278,7 +3227,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputY,1,Stretch,1},{InputX,1,MoveInputX,1},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,1,SetAction,108}]</v>
+        <v>[{InputY,1,Stretch,0.2},{InputX,1,MoveInputX,0.05},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,1,SetAction,108}]</v>
       </c>
       <c r="L23" t="s">
         <v>38</v>
@@ -3287,10 +3236,10 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="P23" t="s">
         <v>36</v>
@@ -3299,10 +3248,10 @@
         <v>1</v>
       </c>
       <c r="R23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="T23" t="s">
         <v>38</v>
@@ -3311,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W23">
         <v>184</v>
@@ -3323,7 +3272,7 @@
         <v>-1</v>
       </c>
       <c r="Z23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA23">
         <v>184</v>
@@ -3335,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="AD23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE23">
         <v>108</v>
@@ -3346,28 +3295,28 @@
         <v>184</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E24">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F24">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G24">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J24">
         <v>105</v>
@@ -3380,7 +3329,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,MoveInputX,1},{ShrinkEnd,1,MoveY,3}]</v>
+        <v>[{InputX,1,MoveInputX,1},{Frame,12,MoveY,12}]</v>
       </c>
       <c r="L24" t="s">
         <v>36</v>
@@ -3389,22 +3338,22 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O24">
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S24">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.3">
@@ -3412,10 +3361,10 @@
         <v>201</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3424,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3446,13 +3395,13 @@
         <v>[{Frame,120,SetAction,202}]</v>
       </c>
       <c r="L25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M25">
         <v>120</v>
       </c>
       <c r="N25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O25">
         <v>202</v>
@@ -3463,10 +3412,10 @@
         <v>202</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3475,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3497,13 +3446,13 @@
         <v>[{Frame,240,SetAction,201}]</v>
       </c>
       <c r="L26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M26">
         <v>240</v>
       </c>
       <c r="N26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O26">
         <v>201</v>
@@ -3514,10 +3463,10 @@
         <v>301</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -3554,7 +3503,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O27">
         <v>302</v>
@@ -3565,10 +3514,10 @@
         <v>302</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3605,7 +3554,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O28">
         <v>301</v>
@@ -3616,10 +3565,10 @@
         <v>401</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -3650,13 +3599,13 @@
         <v>[{Frame,-1,MoveInputX,0}]</v>
       </c>
       <c r="L29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M29">
         <v>-1</v>
       </c>
       <c r="N29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -3667,10 +3616,10 @@
         <v>402</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -3704,13 +3653,13 @@
         <v>[{Frame,-1,MoveInputX,0}]</v>
       </c>
       <c r="L30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M30">
         <v>-1</v>
       </c>
       <c r="N30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -3721,10 +3670,10 @@
         <v>501</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D31">
         <v>3.8</v>
@@ -3755,13 +3704,13 @@
         <v>[{Frame,-1,MoveInputX,0}]</v>
       </c>
       <c r="L31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M31">
         <v>-1</v>
       </c>
       <c r="N31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -3772,10 +3721,10 @@
         <v>502</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3812,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O32">
         <v>503</v>
@@ -3823,10 +3772,10 @@
         <v>503</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3857,13 +3806,13 @@
         <v>[{Frame,6,SetAction,501}]</v>
       </c>
       <c r="L33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M33">
         <v>6</v>
       </c>
       <c r="N33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O33">
         <v>501</v>
@@ -3874,10 +3823,10 @@
         <v>601</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3895,7 +3844,7 @@
         <v>2</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K34" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -3908,25 +3857,25 @@
         <v>[{Walkable,1,MoveLocalX,2},{Walkable,0,MoveLocalX,-2}]</v>
       </c>
       <c r="L34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M34">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O34">
         <v>2</v>
       </c>
       <c r="P34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S34">
         <v>-2</v>
@@ -3937,10 +3886,10 @@
         <v>701</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3971,13 +3920,13 @@
         <v>[{PlayerInSight,1,SetAction,702}]</v>
       </c>
       <c r="L35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M35">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O35">
         <v>702</v>
@@ -3988,10 +3937,10 @@
         <v>702</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -4025,13 +3974,13 @@
         <v>[{Frame,-1,MoveInputX,0}]</v>
       </c>
       <c r="L36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M36">
         <v>-1</v>
       </c>
       <c r="N36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -4042,10 +3991,10 @@
         <v>703</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -4060,10 +4009,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I37">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K37" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -4076,37 +4025,37 @@
         <v>[{None,1,StalkX,9},{None,1,StalkY,9},{Frame,60,SetAction,704}]</v>
       </c>
       <c r="L37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M37">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O37">
         <v>9</v>
       </c>
       <c r="P37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q37">
         <v>1</v>
       </c>
       <c r="R37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S37">
         <v>9</v>
       </c>
       <c r="T37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U37">
         <v>60</v>
       </c>
       <c r="V37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W37">
         <v>704</v>
@@ -4117,10 +4066,10 @@
         <v>704</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -4151,13 +4100,13 @@
         <v>[{Frame,180,SetAction,703}]</v>
       </c>
       <c r="L38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M38">
         <v>180</v>
       </c>
       <c r="N38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O38">
         <v>703</v>
@@ -4177,13 +4126,13 @@
           <x14:formula1>
             <xm:f>_helper!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>AP3 AL8 AL21:AL23 AL2:AL3 AD2:AD38 N2:N38 AH2:AH38 R2:R38 V2:V38 Z2:Z38</xm:sqref>
+          <xm:sqref>AP3 AL8 AL21:AL23 AL2:AL3 AD2:AD38 N2:N38 AH2:AH38 R2:R38 Z2:Z38 V2:V38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{38EFAF22-778F-4724-863A-ECD1104B256A}">
           <x14:formula1>
             <xm:f>_helper!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>AN3 AJ8 AJ21:AJ23 AJ2:AJ3 AB2:AB38 L2:L38 AF2:AF38 P2:P38 T2:T38 X2:X38</xm:sqref>
+          <xm:sqref>AN3 AJ8 AJ21:AJ23 AJ2:AJ3 AB2:AB38 L2:L38 AF2:AF38 P2:P38 X2:X38 T2:T38</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4207,10 +4156,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -4218,7 +4167,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4226,15 +4175,15 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4242,7 +4191,7 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4250,7 +4199,7 @@
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4258,15 +4207,15 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4274,7 +4223,7 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -4294,22 +4243,22 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4394A41-2D7B-4251-B81E-76194210AE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB1DCD5-6F75-4F31-8888-4478100F452B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="164">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -666,7 +666,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,12 +681,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1136,7 +1130,7 @@
   <dimension ref="A1:AQ38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1570,10 +1564,10 @@
         <v>15</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F4">
         <v>0.1</v>
@@ -1684,7 +1678,7 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J5">
         <v>105</v>
@@ -1697,7 +1691,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,MoveInputX,0.05},{Jump,1,MoveY,6},{Jump,0,SetAction,105},{OnLand,1,SetAction,101}]</v>
+        <v>[{InputX,1,MoveInputX,0.1},{Jump,1,MoveY,3},{Jump,0,SetAction,105},{OnLand,1,SetAction,101}]</v>
       </c>
       <c r="L5" t="s">
         <v>36</v>
@@ -1709,7 +1703,7 @@
         <v>59</v>
       </c>
       <c r="O5">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="P5" t="s">
         <v>42</v>
@@ -1721,7 +1715,7 @@
         <v>64</v>
       </c>
       <c r="S5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T5" t="s">
         <v>42</v>
@@ -1774,7 +1768,7 @@
         <v>9</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="K6" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -1784,7 +1778,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,MoveInputX,0.05},{InputYDown,-1,SetAction,152},{Attack,1,SetAction,151},{OnWall,1,SetAction,155},{OnLand,1,SetAction,101}]</v>
+        <v>[{InputX,1,MoveInputX,0.1},{InputYDown,-1,SetAction,152},{Attack,1,SetAction,151},{OnWall,1,SetAction,155},{OnLand,1,SetAction,101}]</v>
       </c>
       <c r="L6" t="s">
         <v>36</v>
@@ -1796,7 +1790,7 @@
         <v>59</v>
       </c>
       <c r="O6">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="P6" t="s">
         <v>158</v>
@@ -2146,10 +2140,10 @@
         <v>15</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="E10">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F10">
         <v>0.1</v>
@@ -2221,10 +2215,10 @@
         <v>90</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F11">
         <v>0.1</v>
@@ -2332,10 +2326,10 @@
         <v>87</v>
       </c>
       <c r="D12">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="E12">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F12">
         <v>0.1</v>
@@ -2386,10 +2380,10 @@
         <v>88</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="E13">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F13">
         <v>0.1</v>
@@ -2414,7 +2408,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{None,1,MoveLocalX,12},{Frame,1,Spawn,10100001}]</v>
+        <v>[{None,1,MoveLocalX,12},{Frame,1,Spawn,10100001},{None,1,MoveLocalX,0.01},{Frame,1,MoveY,5}]</v>
       </c>
       <c r="L13" t="s">
         <v>162</v>
@@ -2439,6 +2433,30 @@
       </c>
       <c r="S13">
         <v>10100001</v>
+      </c>
+      <c r="T13" t="s">
+        <v>162</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13" t="s">
+        <v>61</v>
+      </c>
+      <c r="W13">
+        <v>0.01</v>
+      </c>
+      <c r="X13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA13">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.3">
@@ -2452,10 +2470,10 @@
         <v>94</v>
       </c>
       <c r="D14">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="E14">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F14">
         <v>0.1</v>
@@ -2464,10 +2482,10 @@
         <v>2</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I14">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J14">
         <v>103</v>
@@ -2480,7 +2498,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{None,1,MoveLocalX,15},{Frame,0,MoveY,9}]</v>
+        <v>[{None,1,MoveLocalX,18},{Frame,0,MoveY,10}]</v>
       </c>
       <c r="L14" t="s">
         <v>162</v>
@@ -2492,7 +2510,7 @@
         <v>61</v>
       </c>
       <c r="O14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P14" t="s">
         <v>55</v>
@@ -2504,7 +2522,7 @@
         <v>64</v>
       </c>
       <c r="S14">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.3">
@@ -2638,16 +2656,16 @@
         <v>107</v>
       </c>
       <c r="D17">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="E17">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F17">
         <v>0.1</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H17">
         <v>12</v>
@@ -2663,7 +2681,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,1,MoveLocalX,12},{None,1,MoveLocalX,0.01},{Frame,1,Spawn,10100001},{OnWall,1,SetAction,155},{OnLand,1,SetAction,101}]</v>
+        <v>[{Frame,1,MoveLocalX,12},{None,1,MoveLocalX,0.01},{Frame,1,Spawn,10100001},{OnLand,1,SetAction,101}]</v>
       </c>
       <c r="L17" t="s">
         <v>55</v>
@@ -2702,7 +2720,7 @@
         <v>10100001</v>
       </c>
       <c r="X17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y17">
         <v>1</v>
@@ -2711,18 +2729,6 @@
         <v>71</v>
       </c>
       <c r="AA17">
-        <v>155</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC17">
-        <v>1</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE17">
         <v>101</v>
       </c>
     </row>
@@ -2749,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I18">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="K18" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -2762,7 +2768,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{None,1,MoveLocalX,12},{None,1,MoveY,-9},{OnWall,1,SetAction,155},{OnLand,1,SetAction,101}]</v>
+        <v>[{None,1,MoveLocalX,18},{None,1,MoveY,-18},{OnWall,1,SetAction,155},{OnLand,1,SetAction,101}]</v>
       </c>
       <c r="L18" t="s">
         <v>162</v>
@@ -2774,7 +2780,7 @@
         <v>61</v>
       </c>
       <c r="O18">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P18" t="s">
         <v>162</v>
@@ -2786,7 +2792,7 @@
         <v>64</v>
       </c>
       <c r="S18">
-        <v>-9</v>
+        <v>-18</v>
       </c>
       <c r="T18" t="s">
         <v>52</v>
@@ -2849,7 +2855,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{JumpDown,1,SetAction,156},{OnLand,1,SetAction,101}]</v>
+        <v>[{JumpDown,1,SetAction,156},{OnWall,0,SetAction,105},{OnLand,1,SetAction,101}]</v>
       </c>
       <c r="L19" t="s">
         <v>160</v>
@@ -2864,15 +2870,27 @@
         <v>156</v>
       </c>
       <c r="P19" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>71</v>
+      </c>
+      <c r="S19">
+        <v>105</v>
+      </c>
+      <c r="T19" t="s">
         <v>50</v>
       </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19" t="s">
-        <v>71</v>
-      </c>
-      <c r="S19">
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19" t="s">
+        <v>71</v>
+      </c>
+      <c r="W19">
         <v>101</v>
       </c>
     </row>
@@ -3116,7 +3134,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputY,1,Stretch,0.2},{InputX,1,MoveInputX,0.05},{Jump,1,MoveY,1},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,1,SetAction,108}]</v>
+        <v>[{InputY,1,Stretch,0.2},{InputX,1,MoveInputX,0.05},{Jump,1,MoveY,3},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,1,SetAction,108}]</v>
       </c>
       <c r="L22" t="s">
         <v>38</v>
@@ -3152,7 +3170,7 @@
         <v>64</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X22" t="s">
         <v>38</v>
@@ -3217,7 +3235,7 @@
         <v>6</v>
       </c>
       <c r="I23">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="K23" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB1DCD5-6F75-4F31-8888-4478100F452B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9488BBC0-88A2-4798-8554-5A6F66433036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="164">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1129,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
   <dimension ref="A1:AQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1691,7 +1691,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,MoveInputX,0.1},{Jump,1,MoveY,3},{Jump,0,SetAction,105},{OnLand,1,SetAction,101}]</v>
+        <v>[{InputX,1,MoveInputX,0.1},{Jump,1,MoveY,3},{Jump,0,SetAction,105}]</v>
       </c>
       <c r="L5" t="s">
         <v>36</v>
@@ -1728,18 +1728,6 @@
       </c>
       <c r="W5">
         <v>105</v>
-      </c>
-      <c r="X5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA5">
-        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.3">

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9488BBC0-88A2-4798-8554-5A6F66433036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655D3544-0520-465C-9D36-0FEB322747A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
@@ -1129,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
   <dimension ref="A1:AQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1330,7 +1330,7 @@
         <v>2</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>6</v>
@@ -1441,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>6</v>
@@ -1576,7 +1576,7 @@
         <v>2</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>6</v>
@@ -1675,7 +1675,7 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5">
         <v>9</v>
@@ -1691,7 +1691,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,MoveInputX,0.1},{Jump,1,MoveY,3},{Jump,0,SetAction,105}]</v>
+        <v>[{InputX,1,MoveInputX,1},{Jump,1,MoveY,3},{Jump,0,SetAction,105}]</v>
       </c>
       <c r="L5" t="s">
         <v>36</v>
@@ -1703,7 +1703,7 @@
         <v>59</v>
       </c>
       <c r="O5">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="P5" t="s">
         <v>42</v>
@@ -1753,7 +1753,7 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6">
         <v>18</v>
@@ -1766,7 +1766,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,MoveInputX,0.1},{InputYDown,-1,SetAction,152},{Attack,1,SetAction,151},{OnWall,1,SetAction,155},{OnLand,1,SetAction,101}]</v>
+        <v>[{InputX,1,MoveInputX,1},{InputYDown,-1,SetAction,152},{Attack,1,SetAction,151},{OnWall,1,SetAction,155},{OnLand,1,SetAction,101}]</v>
       </c>
       <c r="L6" t="s">
         <v>36</v>
@@ -1778,7 +1778,7 @@
         <v>59</v>
       </c>
       <c r="O6">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="P6" t="s">
         <v>158</v>
@@ -1852,7 +1852,7 @@
         <v>2</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -1906,7 +1906,7 @@
         <v>2</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8">
         <v>6</v>
@@ -2029,7 +2029,7 @@
         <v>2</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I9">
         <v>6</v>
@@ -2140,7 +2140,7 @@
         <v>2</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -2215,7 +2215,7 @@
         <v>2</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <v>6</v>
@@ -2536,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2905,7 +2905,7 @@
         <v>2</v>
       </c>
       <c r="H20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I20">
         <v>9</v>
@@ -2983,7 +2983,7 @@
         <v>2</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I21">
         <v>6</v>
@@ -3106,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I22">
         <v>6</v>
@@ -3220,7 +3220,7 @@
         <v>2</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I23">
         <v>18</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I24">
         <v>12</v>

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655D3544-0520-465C-9D36-0FEB322747A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14FC528-358E-452D-8DA7-31319F60FE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
@@ -1129,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
   <dimension ref="A1:AQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3373,10 +3373,10 @@
         <v>152</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F25">
         <v>0.1</v>
@@ -3424,7 +3424,7 @@
         <v>153</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E26">
         <v>0</v>

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14FC528-358E-452D-8DA7-31319F60FE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A843F95-6409-4975-A61A-5891C308B65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="164">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1129,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
   <dimension ref="A1:AQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1144,7 +1144,7 @@
     <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.625" customWidth="1"/>
     <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
@@ -1152,7 +1152,7 @@
     <col min="18" max="18" width="9.625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
@@ -2137,13 +2137,13 @@
         <v>0.1</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K10" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -2153,7 +2153,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Jump,1,SetAction,104},{InputX,1,MoveInputX,1},{InputX,1,MoveY,0.1}]</v>
+        <v>[{Jump,1,SetAction,104},{InputX,1,MoveInputX,12},{InputX,1,MoveY,6}]</v>
       </c>
       <c r="L10" t="s">
         <v>42</v>
@@ -2177,7 +2177,7 @@
         <v>59</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T10" t="s">
         <v>36</v>
@@ -2189,7 +2189,7 @@
         <v>64</v>
       </c>
       <c r="W10">
-        <v>0.1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.3">
@@ -3500,10 +3500,10 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{JumpValid,1,SetAction,302}]</v>
+        <v>[{JumpDown,1,SetAction,302}]</v>
       </c>
       <c r="L27" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -3551,10 +3551,10 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{JumpValid,1,SetAction,301}]</v>
+        <v>[{JumpDown,1,SetAction,301}]</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -3577,10 +3577,10 @@
         <v>154</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3628,10 +3628,10 @@
         <v>155</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3773,7 +3773,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>503</v>
       </c>
@@ -3809,13 +3809,13 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,6,SetAction,501}]</v>
+        <v>[{Frame,120,SetAction,501}]</v>
       </c>
       <c r="L33" t="s">
         <v>55</v>
       </c>
       <c r="M33">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="N33" t="s">
         <v>71</v>
@@ -3824,7 +3824,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>601</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>701</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>702</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>703</v>
       </c>
@@ -4028,10 +4028,10 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{None,1,StalkX,9},{None,1,StalkY,9},{Frame,60,SetAction,704}]</v>
+        <v>[{Frame,1,StalkX,12},{Frame,1,StalkY,12},{Frame,90,SetAction,704},{None,1,StalkX,0.01}]</v>
       </c>
       <c r="L37" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -4040,10 +4040,10 @@
         <v>148</v>
       </c>
       <c r="O37">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="Q37">
         <v>1</v>
@@ -4052,13 +4052,13 @@
         <v>149</v>
       </c>
       <c r="S37">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T37" t="s">
         <v>55</v>
       </c>
       <c r="U37">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="V37" t="s">
         <v>71</v>
@@ -4066,8 +4066,20 @@
       <c r="W37">
         <v>704</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X37" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA37">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>704</v>
       </c>
@@ -4090,10 +4102,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K38" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -4103,19 +4115,43 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,180,SetAction,703}]</v>
+        <v>[{Frame,360,SetAction,703},{None,1,StalkX,0.1},{None,1,StalkY,0.1}]</v>
       </c>
       <c r="L38" t="s">
         <v>55</v>
       </c>
       <c r="M38">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="N38" t="s">
         <v>71</v>
       </c>
       <c r="O38">
         <v>703</v>
+      </c>
+      <c r="P38" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38" t="s">
+        <v>148</v>
+      </c>
+      <c r="S38">
+        <v>0.1</v>
+      </c>
+      <c r="T38" t="s">
+        <v>162</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38" t="s">
+        <v>149</v>
+      </c>
+      <c r="W38">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A843F95-6409-4975-A61A-5891C308B65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5FE762-58AF-4DC9-A188-5B2390876D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="166">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -659,6 +659,14 @@
   </si>
   <si>
     <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경비견 도망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dog_runaway</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,8 +751,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07CD4AC0-49C4-4B86-80BF-22BA39ABB725}" name="표1" displayName="표1" ref="A1:AQ38" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:AQ38" xr:uid="{07CD4AC0-49C4-4B86-80BF-22BA39ABB725}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07CD4AC0-49C4-4B86-80BF-22BA39ABB725}" name="표1" displayName="표1" ref="A1:AQ39" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:AQ39" xr:uid="{07CD4AC0-49C4-4B86-80BF-22BA39ABB725}"/>
   <tableColumns count="43">
     <tableColumn id="1" xr3:uid="{70D73D05-C779-4D87-984C-9925A5D4EBE2}" name="Key"/>
     <tableColumn id="2" xr3:uid="{6C939BEA-81BC-4199-8571-BE159B9E93BD}" name="_memo"/>
@@ -1127,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
-  <dimension ref="A1:AQ38"/>
+  <dimension ref="A1:AQ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1678,7 +1686,7 @@
         <v>8</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J5">
         <v>105</v>
@@ -1691,7 +1699,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,MoveInputX,1},{Jump,1,MoveY,3},{Jump,0,SetAction,105}]</v>
+        <v>[{InputX,1,MoveInputX,1},{Jump,1,MoveY,6},{Jump,0,SetAction,105}]</v>
       </c>
       <c r="L5" t="s">
         <v>36</v>
@@ -1715,7 +1723,7 @@
         <v>64</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T5" t="s">
         <v>42</v>
@@ -1750,7 +1758,7 @@
         <v>0.2</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H6">
         <v>8</v>
@@ -2329,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J12">
         <v>105</v>
@@ -2342,19 +2350,19 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,1,MoveY,18}]</v>
+        <v>[{Frame,0,MoveY,20}]</v>
       </c>
       <c r="L12" t="s">
         <v>55</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="s">
         <v>64</v>
       </c>
       <c r="O12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.3">
@@ -3122,7 +3130,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputY,1,Stretch,0.2},{InputX,1,MoveInputX,0.05},{Jump,1,MoveY,3},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,1,SetAction,108}]</v>
+        <v>[{InputY,1,Stretch,0.2},{InputX,1,MoveInputX,0.05},{Jump,1,MoveY,3},{Jump,0,SetAction,183},{InputY,0,SetAction,184},{InputY,-1,SetAction,184}]</v>
       </c>
       <c r="L22" t="s">
         <v>38</v>
@@ -3161,7 +3169,7 @@
         <v>3</v>
       </c>
       <c r="X22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -3170,13 +3178,13 @@
         <v>71</v>
       </c>
       <c r="AA22">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AB22" t="s">
         <v>38</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="s">
         <v>71</v>
@@ -3185,16 +3193,16 @@
         <v>184</v>
       </c>
       <c r="AF22" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AG22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AH22" t="s">
         <v>71</v>
       </c>
       <c r="AI22">
-        <v>108</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.3">
@@ -3889,31 +3897,31 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>701</v>
+        <v>602</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K35" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -3923,30 +3931,30 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{PlayerInSight,1,SetAction,702}]</v>
+        <v>[{Walkable,1,StalkX,-3}]</v>
       </c>
       <c r="L35" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M35">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="O35">
-        <v>702</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3965,9 +3973,6 @@
       </c>
       <c r="I36">
         <v>0</v>
-      </c>
-      <c r="J36">
-        <v>703</v>
       </c>
       <c r="K36" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -3977,48 +3982,51 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,-1,MoveInputX,0}]</v>
+        <v>[{PlayerInSight,1,SetAction,702}]</v>
       </c>
       <c r="L36" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="M36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>702</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37">
+        <v>702</v>
+      </c>
+      <c r="B37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>703</v>
-      </c>
-      <c r="B37" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" t="s">
-        <v>142</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>0.5</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>12</v>
-      </c>
-      <c r="I37">
-        <v>12</v>
       </c>
       <c r="K37" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -4028,66 +4036,30 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,1,StalkX,12},{Frame,1,StalkY,12},{Frame,90,SetAction,704},{None,1,StalkX,0.01}]</v>
+        <v>[{Frame,-1,MoveInputX,0}]</v>
       </c>
       <c r="L37" t="s">
         <v>55</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N37" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="O37">
-        <v>12</v>
-      </c>
-      <c r="P37" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-      <c r="R37" t="s">
-        <v>149</v>
-      </c>
-      <c r="S37">
-        <v>12</v>
-      </c>
-      <c r="T37" t="s">
-        <v>55</v>
-      </c>
-      <c r="U37">
-        <v>90</v>
-      </c>
-      <c r="V37" t="s">
-        <v>71</v>
-      </c>
-      <c r="W37">
-        <v>704</v>
-      </c>
-      <c r="X37" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y37">
-        <v>1</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA37">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -4096,16 +4068,16 @@
         <v>3</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K38" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -4115,42 +4087,129 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,360,SetAction,703},{None,1,StalkX,0.1},{None,1,StalkY,0.1}]</v>
+        <v>[{Frame,1,StalkX,12},{Frame,1,StalkY,12},{Frame,90,SetAction,704},{None,1,StalkX,0.01}]</v>
       </c>
       <c r="L38" t="s">
         <v>55</v>
       </c>
       <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>148</v>
+      </c>
+      <c r="O38">
+        <v>12</v>
+      </c>
+      <c r="P38" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38" t="s">
+        <v>149</v>
+      </c>
+      <c r="S38">
+        <v>12</v>
+      </c>
+      <c r="T38" t="s">
+        <v>55</v>
+      </c>
+      <c r="U38">
+        <v>90</v>
+      </c>
+      <c r="V38" t="s">
+        <v>71</v>
+      </c>
+      <c r="W38">
+        <v>704</v>
+      </c>
+      <c r="X38" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA38">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>704</v>
+      </c>
+      <c r="B39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="K39" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{Frame,360,SetAction,703},{None,1,StalkX,0.1},{None,1,StalkY,0.1}]</v>
+      </c>
+      <c r="L39" t="s">
+        <v>55</v>
+      </c>
+      <c r="M39">
         <v>360</v>
       </c>
-      <c r="N38" t="s">
-        <v>71</v>
-      </c>
-      <c r="O38">
+      <c r="N39" t="s">
+        <v>71</v>
+      </c>
+      <c r="O39">
         <v>703</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P39" t="s">
         <v>162</v>
       </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-      <c r="R38" t="s">
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39" t="s">
         <v>148</v>
       </c>
-      <c r="S38">
+      <c r="S39">
         <v>0.1</v>
       </c>
-      <c r="T38" t="s">
+      <c r="T39" t="s">
         <v>162</v>
       </c>
-      <c r="U38">
-        <v>1</v>
-      </c>
-      <c r="V38" t="s">
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39" t="s">
         <v>149</v>
       </c>
-      <c r="W38">
+      <c r="W39">
         <v>0.1</v>
       </c>
     </row>
@@ -4168,13 +4227,13 @@
           <x14:formula1>
             <xm:f>_helper!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>AP3 AL8 AL21:AL23 AL2:AL3 AD2:AD38 N2:N38 AH2:AH38 R2:R38 Z2:Z38 V2:V38</xm:sqref>
+          <xm:sqref>AP3 AL8 AL2:AL3 AL21:AL23 Z2:Z39 AD2:AD39 AH2:AH39 N2:N39 V2:V39 R2:R39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{38EFAF22-778F-4724-863A-ECD1104B256A}">
           <x14:formula1>
             <xm:f>_helper!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>AN3 AJ8 AJ21:AJ23 AJ2:AJ3 AB2:AB38 L2:L38 AF2:AF38 P2:P38 X2:X38 T2:T38</xm:sqref>
+          <xm:sqref>AN3 AJ8 AJ2:AJ3 AJ21:AJ23 X2:X39 AB2:AB39 AF2:AF39 L2:L39 T2:T39 P2:P39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5FE762-58AF-4DC9-A188-5B2390876D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EFAF8D-8ED4-4CAB-9E85-8EB833B514B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
   <dimension ref="A1:AQ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2161,10 +2161,10 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Jump,1,SetAction,104},{InputX,1,MoveInputX,12},{InputX,1,MoveY,6}]</v>
+        <v>[{JumpDown,1,SetAction,104},{InputX,1,MoveInputX,12},{InputX,1,MoveY,6}]</v>
       </c>
       <c r="L10" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="M10">
         <v>1</v>

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EFAF8D-8ED4-4CAB-9E85-8EB833B514B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD933EF-2E95-4F9D-9976-35FBC6B90C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
   <dimension ref="A1:AQ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3508,10 +3508,10 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{JumpDown,1,SetAction,302}]</v>
+        <v>[{JumpValid,1,SetAction,302}]</v>
       </c>
       <c r="L27" t="s">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -3559,10 +3559,10 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{JumpDown,1,SetAction,301}]</v>
+        <v>[{JumpValid,1,SetAction,301}]</v>
       </c>
       <c r="L28" t="s">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -4233,7 +4233,7 @@
           <x14:formula1>
             <xm:f>_helper!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>AN3 AJ8 AJ2:AJ3 AJ21:AJ23 X2:X39 AB2:AB39 AF2:AF39 L2:L39 T2:T39 P2:P39</xm:sqref>
+          <xm:sqref>AN3 AJ8 AJ2:AJ3 AJ21:AJ23 X2:X39 AB2:AB39 AF2:AF39 P2:P39 T2:T39 L2:L39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\Documents\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD933EF-2E95-4F9D-9976-35FBC6B90C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A8698A-23C2-4525-9F2F-E579848823F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="166">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1137,54 +1137,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
   <dimension ref="A1:AQ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" customWidth="1"/>
     <col min="4" max="6" width="4.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.625" customWidth="1"/>
-    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.59765625" customWidth="1"/>
+    <col min="12" max="12" width="7.09765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.09765625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.19921875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.69921875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" s="1" customFormat="1" ht="92.4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>101</v>
       </c>
@@ -1351,7 +1351,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,SetAction,102},{InputY,-1,SetAction,103},{InputY,1,SetAction,108},{Attack,1,SetAction,106},{OnLand,0,SetAction,105},{JumpValid,1,SetAction,104}]</v>
+        <v>[{InputX,1,SetAction,107},{InputY,-1,SetAction,103},{InputY,1,SetAction,108},{Attack,1,SetAction,106},{OnLand,0,SetAction,105},{JumpValid,1,SetAction,104}]</v>
       </c>
       <c r="L2" t="s">
         <v>36</v>
@@ -1363,7 +1363,7 @@
         <v>71</v>
       </c>
       <c r="O2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="P2" t="s">
         <v>38</v>
@@ -1426,7 +1426,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>102</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>103</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>105</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>106</v>
       </c>
@@ -1876,22 +1876,34 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,5,Spawn,10100001}]</v>
+        <v>[{Frame,4,MoveLocalX,3},{Frame,5,Spawn,10100001}]</v>
       </c>
       <c r="L7" t="s">
         <v>55</v>
       </c>
       <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7">
         <v>5</v>
       </c>
-      <c r="N7" t="s">
+      <c r="R7" t="s">
         <v>67</v>
       </c>
-      <c r="O7">
+      <c r="S7">
         <v>10100001</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>107</v>
       </c>
@@ -1927,7 +1939,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,MoveInputX,2},{Run,0,SetAction,102},{InputX,0,SetAction,101},{InputY,-1,SetAction,103},{InputY,1,SetAction,108},{OnLand,0,SetAction,105},{JumpValid,1,SetAction,104}]</v>
+        <v>[{InputX,1,MoveInputX,2},{Attack,1,SetAction,106},{InputX,0,SetAction,101},{InputY,-1,SetAction,103},{InputY,1,SetAction,108},{OnLand,0,SetAction,105},{JumpValid,1,SetAction,104}]</v>
       </c>
       <c r="L8" t="s">
         <v>36</v>
@@ -1942,16 +1954,16 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="s">
         <v>71</v>
       </c>
       <c r="S8">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="T8" t="s">
         <v>36</v>
@@ -2014,7 +2026,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>108</v>
       </c>
@@ -2125,7 +2137,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>109</v>
       </c>
@@ -2200,7 +2212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>131</v>
       </c>
@@ -2311,7 +2323,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>132</v>
       </c>
@@ -2365,7 +2377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>133</v>
       </c>
@@ -2455,7 +2467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>134</v>
       </c>
@@ -2521,7 +2533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>151</v>
       </c>
@@ -2560,34 +2572,46 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,5,Spawn,10100001},{OnLand,1,SetAction,101}]</v>
+        <v>[{Frame,4,MoveLocalX,3},{Frame,5,Spawn,10100001},{OnLand,1,SetAction,101}]</v>
       </c>
       <c r="L15" t="s">
         <v>55</v>
       </c>
       <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>61</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q15">
         <v>5</v>
       </c>
-      <c r="N15" t="s">
+      <c r="R15" t="s">
         <v>67</v>
       </c>
-      <c r="O15">
+      <c r="S15">
         <v>10100001</v>
       </c>
-      <c r="P15" t="s">
+      <c r="T15" t="s">
         <v>50</v>
       </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15" t="s">
-        <v>71</v>
-      </c>
-      <c r="S15">
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15" t="s">
+        <v>71</v>
+      </c>
+      <c r="W15">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>152</v>
       </c>
@@ -2641,7 +2665,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>153</v>
       </c>
@@ -2728,7 +2752,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>154</v>
       </c>
@@ -2815,7 +2839,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>155</v>
       </c>
@@ -2890,7 +2914,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>156</v>
       </c>
@@ -2968,7 +2992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>181</v>
       </c>
@@ -3091,7 +3115,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>182</v>
       </c>
@@ -3205,7 +3229,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>183</v>
       </c>
@@ -3304,7 +3328,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>184</v>
       </c>
@@ -3343,7 +3367,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,MoveInputX,1},{Frame,12,MoveY,12}]</v>
+        <v>[{InputX,1,MoveInputX,1},{Frame,1,MoveY,12}]</v>
       </c>
       <c r="L24" t="s">
         <v>36</v>
@@ -3361,7 +3385,7 @@
         <v>55</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R24" t="s">
         <v>64</v>
@@ -3370,7 +3394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>201</v>
       </c>
@@ -3421,7 +3445,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>202</v>
       </c>
@@ -3472,7 +3496,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>301</v>
       </c>
@@ -3523,7 +3547,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>302</v>
       </c>
@@ -3574,7 +3598,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>401</v>
       </c>
@@ -3625,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>402</v>
       </c>
@@ -3679,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>501</v>
       </c>
@@ -3730,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>502</v>
       </c>
@@ -3781,7 +3805,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>503</v>
       </c>
@@ -3832,7 +3856,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>601</v>
       </c>
@@ -3895,7 +3919,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>602</v>
       </c>
@@ -3946,7 +3970,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>701</v>
       </c>
@@ -3997,7 +4021,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>702</v>
       </c>
@@ -4051,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>703</v>
       </c>
@@ -4138,7 +4162,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>704</v>
       </c>
@@ -4227,13 +4251,13 @@
           <x14:formula1>
             <xm:f>_helper!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>AP3 AL8 AL2:AL3 AL21:AL23 Z2:Z39 AD2:AD39 AH2:AH39 N2:N39 V2:V39 R2:R39</xm:sqref>
+          <xm:sqref>AP3 AL8 AL2:AL3 AL21:AL23 Z2:Z39 AD2:AD39 AH2:AH39 V2:V39 R2:R39 N2:N39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{38EFAF22-778F-4724-863A-ECD1104B256A}">
           <x14:formula1>
             <xm:f>_helper!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>AN3 AJ8 AJ2:AJ3 AJ21:AJ23 X2:X39 AB2:AB39 AF2:AF39 P2:P39 T2:T39 L2:L39</xm:sqref>
+          <xm:sqref>AN3 AJ8 AJ2:AJ3 AJ21:AJ23 X2:X39 AB2:AB39 AF2:AF39 T2:T39 P2:P39 L2:L39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4249,13 +4273,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>163</v>
       </c>
@@ -4263,7 +4287,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -4271,7 +4295,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -4279,7 +4303,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>159</v>
       </c>
@@ -4287,7 +4311,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -4295,7 +4319,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -4303,7 +4327,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -4311,7 +4335,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -4319,7 +4343,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -4327,37 +4351,37 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>58</v>
       </c>

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\Documents\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A8698A-23C2-4525-9F2F-E579848823F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E57E7B0-BCFC-4C22-AEB9-F62E0D00D3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
+    <workbookView xWindow="3150" yWindow="3150" windowWidth="21600" windowHeight="11295" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="166">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1137,54 +1137,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
   <dimension ref="A1:AQ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="20.19921875" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
     <col min="4" max="6" width="4.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.59765625" customWidth="1"/>
-    <col min="12" max="12" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.625" customWidth="1"/>
+    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.25" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.75" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" ht="92.4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:43" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>2</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <v>6</v>
@@ -1426,7 +1426,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I3">
         <v>6</v>
@@ -1561,7 +1561,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <v>6</v>
@@ -1660,7 +1660,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1683,10 +1683,10 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J5">
         <v>105</v>
@@ -1738,7 +1738,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>105</v>
       </c>
@@ -1758,10 +1758,10 @@
         <v>0.2</v>
       </c>
       <c r="G6">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I6">
         <v>18</v>
@@ -1837,7 +1837,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>106</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>2</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -1903,7 +1903,7 @@
         <v>10100001</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>107</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I8">
         <v>6</v>
@@ -2026,7 +2026,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>108</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I9">
         <v>6</v>
@@ -2137,7 +2137,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>109</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>12</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I10">
         <v>12</v>
@@ -2212,7 +2212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>131</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>2</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I11">
         <v>6</v>
@@ -2323,7 +2323,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>132</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>133</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>2</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I13">
         <v>9</v>
@@ -2467,7 +2467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>134</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>151</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2611,7 +2611,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>152</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>153</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>0.5</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I17">
         <v>9</v>
@@ -2752,7 +2752,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>154</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>155</v>
       </c>
@@ -2875,46 +2875,58 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{JumpDown,1,SetAction,156},{OnWall,0,SetAction,105},{OnLand,1,SetAction,101}]</v>
+        <v>[{InputX,1,MoveInputX,1},{JumpDown,1,SetAction,156},{OnWall,0,SetAction,105},{OnLand,1,SetAction,101}]</v>
       </c>
       <c r="L19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>59</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
         <v>160</v>
       </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>71</v>
-      </c>
-      <c r="O19">
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s">
+        <v>71</v>
+      </c>
+      <c r="S19">
         <v>156</v>
       </c>
-      <c r="P19" t="s">
+      <c r="T19" t="s">
         <v>52</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
-        <v>71</v>
-      </c>
-      <c r="S19">
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19" t="s">
+        <v>71</v>
+      </c>
+      <c r="W19">
         <v>105</v>
       </c>
-      <c r="T19" t="s">
+      <c r="X19" t="s">
         <v>50</v>
       </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19" t="s">
-        <v>71</v>
-      </c>
-      <c r="W19">
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA19">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>156</v>
       </c>
@@ -2937,7 +2949,7 @@
         <v>2</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I20">
         <v>9</v>
@@ -2992,7 +3004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>181</v>
       </c>
@@ -3015,7 +3027,7 @@
         <v>2</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I21">
         <v>6</v>
@@ -3115,7 +3127,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>182</v>
       </c>
@@ -3138,7 +3150,7 @@
         <v>2</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I22">
         <v>6</v>
@@ -3229,7 +3241,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>183</v>
       </c>
@@ -3252,7 +3264,7 @@
         <v>2</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I23">
         <v>18</v>
@@ -3328,7 +3340,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>184</v>
       </c>
@@ -3351,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I24">
         <v>12</v>
@@ -3367,7 +3379,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputX,1,MoveInputX,1},{Frame,1,MoveY,12}]</v>
+        <v>[{InputX,1,MoveInputX,1},{Frame,2,MoveY,12}]</v>
       </c>
       <c r="L24" t="s">
         <v>36</v>
@@ -3385,7 +3397,7 @@
         <v>55</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R24" t="s">
         <v>64</v>
@@ -3394,7 +3406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>201</v>
       </c>
@@ -3405,7 +3417,7 @@
         <v>152</v>
       </c>
       <c r="D25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0.8</v>
@@ -3445,7 +3457,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>202</v>
       </c>
@@ -3456,7 +3468,7 @@
         <v>153</v>
       </c>
       <c r="D26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3496,7 +3508,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>301</v>
       </c>
@@ -3547,7 +3559,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>302</v>
       </c>
@@ -3598,7 +3610,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>401</v>
       </c>
@@ -3649,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>402</v>
       </c>
@@ -3703,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>501</v>
       </c>
@@ -3754,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>502</v>
       </c>
@@ -3790,10 +3802,10 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Jump,1,SetAction,503}]</v>
+        <v>[{JumpDown,1,SetAction,503}]</v>
       </c>
       <c r="L32" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -3805,7 +3817,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>503</v>
       </c>
@@ -3856,7 +3868,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>601</v>
       </c>
@@ -3919,7 +3931,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>602</v>
       </c>
@@ -3970,7 +3982,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>701</v>
       </c>
@@ -4021,7 +4033,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>702</v>
       </c>
@@ -4075,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>703</v>
       </c>
@@ -4162,7 +4174,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>704</v>
       </c>
@@ -4251,13 +4263,13 @@
           <x14:formula1>
             <xm:f>_helper!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>AP3 AL8 AL2:AL3 AL21:AL23 Z2:Z39 AD2:AD39 AH2:AH39 V2:V39 R2:R39 N2:N39</xm:sqref>
+          <xm:sqref>AP3 AL8 AL2:AL3 AL21:AL23 AD2:AD39 AH2:AH39 Z2:Z39 R2:R39 V2:V39 N2:N39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{38EFAF22-778F-4724-863A-ECD1104B256A}">
           <x14:formula1>
             <xm:f>_helper!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>AN3 AJ8 AJ2:AJ3 AJ21:AJ23 X2:X39 AB2:AB39 AF2:AF39 T2:T39 P2:P39 L2:L39</xm:sqref>
+          <xm:sqref>AN3 AJ8 AJ2:AJ3 AJ21:AJ23 AB2:AB39 AF2:AF39 X2:X39 P2:P39 T2:T39 L2:L39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4273,13 +4285,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>163</v>
       </c>
@@ -4287,7 +4299,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -4295,7 +4307,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -4303,7 +4315,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>159</v>
       </c>
@@ -4311,7 +4323,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -4319,7 +4331,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -4327,7 +4339,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -4335,7 +4347,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -4343,7 +4355,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -4351,37 +4363,37 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>58</v>
       </c>

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E57E7B0-BCFC-4C22-AEB9-F62E0D00D3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8093D667-F49E-4ED3-8A50-ADAB77CC1A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="3150" windowWidth="21600" windowHeight="11295" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -574,22 +574,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>oni_disguised</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oni_transform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oni_follow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oni_idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Walkable</t>
   </si>
   <si>
@@ -667,6 +651,22 @@
   </si>
   <si>
     <t>dog_runaway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy_angry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy_appear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy_rush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy_hold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
   <dimension ref="A1:AQ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1789,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q6">
         <v>-1</v>
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O9">
         <v>0.2</v>
@@ -2142,7 +2142,7 @@
         <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -2176,7 +2176,7 @@
         <v>[{JumpDown,1,SetAction,104},{InputX,1,MoveInputX,12},{InputX,1,MoveY,6}]</v>
       </c>
       <c r="L10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -2419,7 +2419,7 @@
         <v>[{None,1,MoveLocalX,12},{Frame,1,Spawn,10100001},{None,1,MoveLocalX,0.01},{Frame,1,MoveY,5}]</v>
       </c>
       <c r="L13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -2443,7 +2443,7 @@
         <v>10100001</v>
       </c>
       <c r="T13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="U13">
         <v>1</v>
@@ -2509,7 +2509,7 @@
         <v>[{None,1,MoveLocalX,18},{Frame,0,MoveY,10}]</v>
       </c>
       <c r="L14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -2716,7 +2716,7 @@
         <v>12</v>
       </c>
       <c r="P17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -2791,7 +2791,7 @@
         <v>[{None,1,MoveLocalX,18},{None,1,MoveY,-18},{OnWall,1,SetAction,155},{OnLand,1,SetAction,101}]</v>
       </c>
       <c r="L18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -2803,7 +2803,7 @@
         <v>18</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -2890,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -2980,7 +2980,7 @@
         <v>-18</v>
       </c>
       <c r="P20" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -2992,7 +2992,7 @@
         <v>9</v>
       </c>
       <c r="T20" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -3049,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O21">
         <v>0.2</v>
@@ -3175,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O22">
         <v>0.2</v>
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O23">
         <v>0.2</v>
@@ -3414,7 +3414,7 @@
         <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3465,7 +3465,7 @@
         <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3516,7 +3516,7 @@
         <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -3567,7 +3567,7 @@
         <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>129</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>[{JumpDown,1,SetAction,503}]</v>
       </c>
       <c r="L32" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -3873,10 +3873,10 @@
         <v>601</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3907,7 +3907,7 @@
         <v>[{Walkable,1,MoveLocalX,2},{Walkable,0,MoveLocalX,-2}]</v>
       </c>
       <c r="L34" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -3919,7 +3919,7 @@
         <v>2</v>
       </c>
       <c r="P34" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -3936,10 +3936,10 @@
         <v>602</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3970,13 +3970,13 @@
         <v>[{Walkable,1,StalkX,-3}]</v>
       </c>
       <c r="L35" t="s">
+        <v>140</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
         <v>144</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35" t="s">
-        <v>148</v>
       </c>
       <c r="O35">
         <v>-3</v>
@@ -3990,7 +3990,7 @@
         <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>[{PlayerInSight,1,SetAction,702}]</v>
       </c>
       <c r="L36" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -4041,7 +4041,7 @@
         <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -4095,7 +4095,7 @@
         <v>136</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -4132,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O38">
         <v>12</v>
@@ -4144,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="R38" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="S38">
         <v>12</v>
@@ -4162,13 +4162,13 @@
         <v>704</v>
       </c>
       <c r="X38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Y38">
         <v>1</v>
       </c>
       <c r="Z38" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AA38">
         <v>0.01</v>
@@ -4182,7 +4182,7 @@
         <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -4225,25 +4225,25 @@
         <v>703</v>
       </c>
       <c r="P39" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q39">
         <v>1</v>
       </c>
       <c r="R39" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="S39">
         <v>0.1</v>
       </c>
       <c r="T39" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="U39">
         <v>1</v>
       </c>
       <c r="V39" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="W39">
         <v>0.1</v>
@@ -4293,7 +4293,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8093D667-F49E-4ED3-8A50-ADAB77CC1A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772C00FE-8ACF-4DCA-A9E0-A253D3D0DE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:AQ39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="E34" sqref="E34:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3879,10 +3879,10 @@
         <v>141</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3942,10 +3942,10 @@
         <v>161</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="F35">
         <v>0</v>

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772C00FE-8ACF-4DCA-A9E0-A253D3D0DE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7F49AD-999E-4B53-B51D-6FF452C455E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
   <dimension ref="A1:AQ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34:E35"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1335,7 +1335,7 @@
         <v>0.1</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -1446,7 +1446,7 @@
         <v>0.1</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -1581,7 +1581,7 @@
         <v>0.1</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -1686,7 +1686,7 @@
         <v>12</v>
       </c>
       <c r="I5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5">
         <v>105</v>
@@ -1857,7 +1857,7 @@
         <v>0.1</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>8</v>
@@ -1923,7 +1923,7 @@
         <v>0.1</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>12</v>
@@ -2046,7 +2046,7 @@
         <v>0.1</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -2232,7 +2232,7 @@
         <v>0.1</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>8</v>
@@ -3024,7 +3024,7 @@
         <v>0.1</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>8</v>
@@ -3417,10 +3417,10 @@
         <v>148</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0.1</v>
@@ -3468,7 +3468,7 @@
         <v>149</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3853,13 +3853,13 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,120,SetAction,501}]</v>
+        <v>[{Frame,30,SetAction,501}]</v>
       </c>
       <c r="L33" t="s">
         <v>55</v>
       </c>
       <c r="M33">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N33" t="s">
         <v>71</v>

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7F49AD-999E-4B53-B51D-6FF452C455E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DBD7E5-CFE3-4790-9B20-CAD2CED1E9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="166">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
   <dimension ref="A1:AQ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AM10" sqref="AM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1177,7 +1177,7 @@
     <col min="36" max="36" width="10.375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="3.75" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.5" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="10.375" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="3.75" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="9.625" bestFit="1" customWidth="1"/>
@@ -2062,7 +2062,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputY,1,Stretch,0.2},{InputX,1,SetAction,181},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182}]</v>
+        <v>[{InputY,1,Stretch,0.2},{InputX,1,SetAction,181},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182},{Frame,0,Spawn,10100002}]</v>
       </c>
       <c r="L9" t="s">
         <v>38</v>
@@ -2135,6 +2135,18 @@
       </c>
       <c r="AI9">
         <v>182</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM9">
+        <v>10100002</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.3">

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeonhyeonseong/Unity/team-project-for-2024-fall-swpp-team-05/RunInBoots/Assets/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DBD7E5-CFE3-4790-9B20-CAD2CED1E9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148A0A18-E424-E343-8E6E-FB940C987EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,9 @@
   <commentList>
     <comment ref="S13" authorId="0" shapeId="0" xr:uid="{E66A3162-0F90-431A-9409-B94D42850838}">
       <text>
-        <t>[스레드 댓글]
-사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
-댓글:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     넙버링 맞추기용 1 + 유닛 키 01 +카테고리 00 + 인덱스 001</t>
       </text>
     </comment>
@@ -678,14 +678,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -722,7 +722,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -811,7 +811,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1137,54 +1137,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
   <dimension ref="A1:AQ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AM10" sqref="AM10"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="167" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
-    <col min="4" max="6" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.625" customWidth="1"/>
-    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" s="1" customFormat="1" ht="88" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1315,7 +1316,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>101</v>
       </c>
@@ -1426,7 +1427,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>102</v>
       </c>
@@ -1561,7 +1562,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>103</v>
       </c>
@@ -1660,7 +1661,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1738,7 +1739,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>105</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>106</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>10100001</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>107</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>108</v>
       </c>
@@ -2062,7 +2063,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputY,1,Stretch,0.2},{InputX,1,SetAction,181},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182},{Frame,0,Spawn,10100002}]</v>
+        <v>[{InputY,1,Stretch,0.1},{InputX,1,SetAction,181},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182},{Frame,0,Spawn,10100002}]</v>
       </c>
       <c r="L9" t="s">
         <v>38</v>
@@ -2074,7 +2075,7 @@
         <v>153</v>
       </c>
       <c r="O9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P9" t="s">
         <v>36</v>
@@ -2149,7 +2150,7 @@
         <v>10100002</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>109</v>
       </c>
@@ -2224,7 +2225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>131</v>
       </c>
@@ -2335,7 +2336,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>132</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>133</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>134</v>
       </c>
@@ -2545,7 +2546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>151</v>
       </c>
@@ -2623,7 +2624,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>152</v>
       </c>
@@ -2677,7 +2678,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>153</v>
       </c>
@@ -2764,7 +2765,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>154</v>
       </c>
@@ -2851,7 +2852,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>155</v>
       </c>
@@ -2938,7 +2939,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>156</v>
       </c>
@@ -3016,7 +3017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>181</v>
       </c>
@@ -3052,7 +3053,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputY,1,Stretch,0.2},{InputX,1,MoveInputX,1},{InputX,0,SetAction,108},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182}]</v>
+        <v>[{InputY,1,Stretch,0.01},{InputX,1,MoveInputX,1},{InputX,0,SetAction,108},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182}]</v>
       </c>
       <c r="L21" t="s">
         <v>38</v>
@@ -3064,7 +3065,7 @@
         <v>153</v>
       </c>
       <c r="O21">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="P21" t="s">
         <v>36</v>
@@ -3139,7 +3140,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>182</v>
       </c>
@@ -3178,7 +3179,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputY,1,Stretch,0.2},{InputX,1,MoveInputX,0.05},{Jump,1,MoveY,3},{Jump,0,SetAction,183},{InputY,0,SetAction,184},{InputY,-1,SetAction,184}]</v>
+        <v>[{InputY,1,Stretch,0.01},{InputX,1,MoveInputX,0.05},{Jump,1,MoveY,3},{Jump,0,SetAction,183},{InputY,0,SetAction,184},{InputY,-1,SetAction,184}]</v>
       </c>
       <c r="L22" t="s">
         <v>38</v>
@@ -3190,7 +3191,7 @@
         <v>153</v>
       </c>
       <c r="O22">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="P22" t="s">
         <v>36</v>
@@ -3253,7 +3254,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>183</v>
       </c>
@@ -3289,7 +3290,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputY,1,Stretch,0.2},{InputX,1,MoveInputX,0.05},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,1,SetAction,108}]</v>
+        <v>[{InputY,1,Stretch,0.01},{InputX,1,MoveInputX,0.05},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,1,SetAction,108}]</v>
       </c>
       <c r="L23" t="s">
         <v>38</v>
@@ -3301,7 +3302,7 @@
         <v>153</v>
       </c>
       <c r="O23">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="P23" t="s">
         <v>36</v>
@@ -3352,7 +3353,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>184</v>
       </c>
@@ -3418,7 +3419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>201</v>
       </c>
@@ -3469,7 +3470,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>202</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>301</v>
       </c>
@@ -3571,7 +3572,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>302</v>
       </c>
@@ -3622,7 +3623,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>401</v>
       </c>
@@ -3673,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>402</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>501</v>
       </c>
@@ -3778,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>502</v>
       </c>
@@ -3829,7 +3830,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>503</v>
       </c>
@@ -3880,7 +3881,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>601</v>
       </c>
@@ -3943,7 +3944,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>602</v>
       </c>
@@ -3994,7 +3995,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>701</v>
       </c>
@@ -4045,7 +4046,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>702</v>
       </c>
@@ -4099,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>703</v>
       </c>
@@ -4186,7 +4187,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>704</v>
       </c>
@@ -4297,13 +4298,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>159</v>
       </c>
@@ -4311,7 +4312,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -4319,7 +4320,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -4327,7 +4328,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -4343,7 +4344,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -4351,7 +4352,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -4359,7 +4360,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>157</v>
       </c>
@@ -4367,7 +4368,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -4375,37 +4376,37 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>58</v>
       </c>

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeonhyeonseong/Unity/team-project-for-2024-fall-swpp-team-05/RunInBoots/Assets/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148A0A18-E424-E343-8E6E-FB940C987EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36247F25-E9F1-8549-9C79-DBF8E0945A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
   <dimension ref="A1:AQ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="167" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="167" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3179,7 +3179,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputY,1,Stretch,0.01},{InputX,1,MoveInputX,0.05},{Jump,1,MoveY,3},{Jump,0,SetAction,183},{InputY,0,SetAction,184},{InputY,-1,SetAction,184}]</v>
+        <v>[{InputY,1,Stretch,0.05},{InputX,1,MoveInputX,0.05},{Jump,1,MoveY,3},{Jump,0,SetAction,183},{InputY,0,SetAction,184},{InputY,-1,SetAction,184}]</v>
       </c>
       <c r="L22" t="s">
         <v>38</v>
@@ -3191,7 +3191,7 @@
         <v>153</v>
       </c>
       <c r="O22">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="P22" t="s">
         <v>36</v>
@@ -3290,7 +3290,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputY,1,Stretch,0.01},{InputX,1,MoveInputX,0.05},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,1,SetAction,108}]</v>
+        <v>[{InputY,1,Stretch,0.05},{InputX,1,MoveInputX,0.05},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,1,SetAction,108}]</v>
       </c>
       <c r="L23" t="s">
         <v>38</v>
@@ -3302,7 +3302,7 @@
         <v>153</v>
       </c>
       <c r="O23">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="P23" t="s">
         <v>36</v>

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeonhyeonseong/Unity/team-project-for-2024-fall-swpp-team-05/RunInBoots/Assets/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36247F25-E9F1-8549-9C79-DBF8E0945A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DBD7E5-CFE3-4790-9B20-CAD2CED1E9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,9 @@
   <commentList>
     <comment ref="S13" authorId="0" shapeId="0" xr:uid="{E66A3162-0F90-431A-9409-B94D42850838}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
     넙버링 맞추기용 1 + 유닛 키 01 +카테고리 00 + 인덱스 001</t>
       </text>
     </comment>
@@ -678,14 +678,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -722,7 +722,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -811,7 +811,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1137,55 +1137,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
   <dimension ref="A1:AQ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="167" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AM10" sqref="AM10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.83203125" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="6" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.625" customWidth="1"/>
+    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.75" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" ht="88" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1316,7 +1315,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -1427,7 +1426,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -1562,7 +1561,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -1661,7 +1660,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1739,7 +1738,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>105</v>
       </c>
@@ -1838,7 +1837,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>106</v>
       </c>
@@ -1904,7 +1903,7 @@
         <v>10100001</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>107</v>
       </c>
@@ -2027,7 +2026,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>108</v>
       </c>
@@ -2063,7 +2062,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputY,1,Stretch,0.1},{InputX,1,SetAction,181},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182},{Frame,0,Spawn,10100002}]</v>
+        <v>[{InputY,1,Stretch,0.2},{InputX,1,SetAction,181},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182},{Frame,0,Spawn,10100002}]</v>
       </c>
       <c r="L9" t="s">
         <v>38</v>
@@ -2075,7 +2074,7 @@
         <v>153</v>
       </c>
       <c r="O9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P9" t="s">
         <v>36</v>
@@ -2150,7 +2149,7 @@
         <v>10100002</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>109</v>
       </c>
@@ -2225,7 +2224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>131</v>
       </c>
@@ -2336,7 +2335,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>132</v>
       </c>
@@ -2390,7 +2389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>133</v>
       </c>
@@ -2480,7 +2479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>134</v>
       </c>
@@ -2546,7 +2545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>151</v>
       </c>
@@ -2624,7 +2623,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>152</v>
       </c>
@@ -2678,7 +2677,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>153</v>
       </c>
@@ -2765,7 +2764,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>154</v>
       </c>
@@ -2852,7 +2851,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>155</v>
       </c>
@@ -2939,7 +2938,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>156</v>
       </c>
@@ -3017,7 +3016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>181</v>
       </c>
@@ -3053,7 +3052,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputY,1,Stretch,0.01},{InputX,1,MoveInputX,1},{InputX,0,SetAction,108},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182}]</v>
+        <v>[{InputY,1,Stretch,0.2},{InputX,1,MoveInputX,1},{InputX,0,SetAction,108},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182}]</v>
       </c>
       <c r="L21" t="s">
         <v>38</v>
@@ -3065,7 +3064,7 @@
         <v>153</v>
       </c>
       <c r="O21">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="P21" t="s">
         <v>36</v>
@@ -3140,7 +3139,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>182</v>
       </c>
@@ -3179,7 +3178,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputY,1,Stretch,0.05},{InputX,1,MoveInputX,0.05},{Jump,1,MoveY,3},{Jump,0,SetAction,183},{InputY,0,SetAction,184},{InputY,-1,SetAction,184}]</v>
+        <v>[{InputY,1,Stretch,0.2},{InputX,1,MoveInputX,0.05},{Jump,1,MoveY,3},{Jump,0,SetAction,183},{InputY,0,SetAction,184},{InputY,-1,SetAction,184}]</v>
       </c>
       <c r="L22" t="s">
         <v>38</v>
@@ -3191,7 +3190,7 @@
         <v>153</v>
       </c>
       <c r="O22">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="P22" t="s">
         <v>36</v>
@@ -3254,7 +3253,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>183</v>
       </c>
@@ -3290,7 +3289,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputY,1,Stretch,0.05},{InputX,1,MoveInputX,0.05},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,1,SetAction,108}]</v>
+        <v>[{InputY,1,Stretch,0.2},{InputX,1,MoveInputX,0.05},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,1,SetAction,108}]</v>
       </c>
       <c r="L23" t="s">
         <v>38</v>
@@ -3302,7 +3301,7 @@
         <v>153</v>
       </c>
       <c r="O23">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="P23" t="s">
         <v>36</v>
@@ -3353,7 +3352,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>184</v>
       </c>
@@ -3419,7 +3418,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>201</v>
       </c>
@@ -3470,7 +3469,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>202</v>
       </c>
@@ -3521,7 +3520,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>301</v>
       </c>
@@ -3572,7 +3571,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>302</v>
       </c>
@@ -3623,7 +3622,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>401</v>
       </c>
@@ -3674,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>402</v>
       </c>
@@ -3728,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>501</v>
       </c>
@@ -3779,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>502</v>
       </c>
@@ -3830,7 +3829,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>503</v>
       </c>
@@ -3881,7 +3880,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>601</v>
       </c>
@@ -3944,7 +3943,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>602</v>
       </c>
@@ -3995,7 +3994,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>701</v>
       </c>
@@ -4046,7 +4045,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>702</v>
       </c>
@@ -4100,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>703</v>
       </c>
@@ -4187,7 +4186,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>704</v>
       </c>
@@ -4298,13 +4297,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>159</v>
       </c>
@@ -4312,7 +4311,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -4320,7 +4319,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -4328,7 +4327,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -4336,7 +4335,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -4344,7 +4343,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -4352,7 +4351,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -4360,7 +4359,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>157</v>
       </c>
@@ -4368,7 +4367,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -4376,37 +4375,37 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>58</v>
       </c>

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DBD7E5-CFE3-4790-9B20-CAD2CED1E9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3F1906-E70A-41C7-8594-E9AEBBD23E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
   <dimension ref="A1:AQ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AM10" sqref="AM10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1581,7 +1581,7 @@
         <v>0.1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -2364,7 +2364,7 @@
         <v>20</v>
       </c>
       <c r="J12">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K12" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -2868,7 +2868,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F19">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>2</v>

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3F1906-E70A-41C7-8594-E9AEBBD23E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2AEDD5-09CB-4D08-A601-8D183B7D2E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="167">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -667,6 +667,10 @@
   </si>
   <si>
     <t>enemy_hold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경비견 낙하</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -751,8 +755,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07CD4AC0-49C4-4B86-80BF-22BA39ABB725}" name="표1" displayName="표1" ref="A1:AQ39" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:AQ39" xr:uid="{07CD4AC0-49C4-4B86-80BF-22BA39ABB725}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07CD4AC0-49C4-4B86-80BF-22BA39ABB725}" name="표1" displayName="표1" ref="A1:AQ40" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:AQ40" xr:uid="{07CD4AC0-49C4-4B86-80BF-22BA39ABB725}"/>
   <tableColumns count="43">
     <tableColumn id="1" xr3:uid="{70D73D05-C779-4D87-984C-9925A5D4EBE2}" name="Key"/>
     <tableColumn id="2" xr3:uid="{6C939BEA-81BC-4199-8571-BE159B9E93BD}" name="_memo"/>
@@ -1135,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
-  <dimension ref="A1:AQ39"/>
+  <dimension ref="A1:AQ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3916,7 +3920,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Walkable,1,MoveLocalX,2},{Walkable,0,MoveLocalX,-2}]</v>
+        <v>[{Walkable,1,MoveLocalX,2},{Walkable,0,MoveLocalX,-2},{OnLand,0,SetAction,603}]</v>
       </c>
       <c r="L34" t="s">
         <v>140</v>
@@ -3941,6 +3945,18 @@
       </c>
       <c r="S34">
         <v>-2</v>
+      </c>
+      <c r="T34" t="s">
+        <v>50</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34" t="s">
+        <v>71</v>
+      </c>
+      <c r="W34">
+        <v>603</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
@@ -3996,31 +4012,31 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>701</v>
+        <v>603</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="C36" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K36" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -4030,10 +4046,10 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{PlayerInSight,1,SetAction,702}]</v>
+        <v>[{OnLand,1,SetAction,601}]</v>
       </c>
       <c r="L36" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -4042,39 +4058,36 @@
         <v>71</v>
       </c>
       <c r="O36">
-        <v>702</v>
+        <v>601</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>703</v>
+        <v>6</v>
       </c>
       <c r="K37" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -4084,48 +4097,51 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,-1,MoveInputX,0}]</v>
+        <v>[{PlayerInSight,1,SetAction,702}]</v>
       </c>
       <c r="L37" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="M37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>702</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38">
+        <v>702</v>
+      </c>
+      <c r="B38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>703</v>
-      </c>
-      <c r="B38" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>3</v>
-      </c>
-      <c r="F38">
-        <v>0.5</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>12</v>
-      </c>
-      <c r="I38">
-        <v>12</v>
       </c>
       <c r="K38" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -4135,66 +4151,30 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,1,StalkX,12},{Frame,1,StalkY,12},{Frame,90,SetAction,704},{None,1,StalkX,0.01}]</v>
+        <v>[{Frame,-1,MoveInputX,0}]</v>
       </c>
       <c r="L38" t="s">
         <v>55</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N38" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="O38">
-        <v>12</v>
-      </c>
-      <c r="P38" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-      <c r="R38" t="s">
-        <v>145</v>
-      </c>
-      <c r="S38">
-        <v>12</v>
-      </c>
-      <c r="T38" t="s">
-        <v>55</v>
-      </c>
-      <c r="U38">
-        <v>90</v>
-      </c>
-      <c r="V38" t="s">
-        <v>71</v>
-      </c>
-      <c r="W38">
-        <v>704</v>
-      </c>
-      <c r="X38" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y38">
-        <v>1</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA38">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -4203,16 +4183,16 @@
         <v>3</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K39" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -4222,42 +4202,129 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,360,SetAction,703},{None,1,StalkX,0.1},{None,1,StalkY,0.1}]</v>
+        <v>[{Frame,1,StalkX,12},{Frame,1,StalkY,12},{Frame,90,SetAction,704},{None,1,StalkX,0.01}]</v>
       </c>
       <c r="L39" t="s">
         <v>55</v>
       </c>
       <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>144</v>
+      </c>
+      <c r="O39">
+        <v>12</v>
+      </c>
+      <c r="P39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39" t="s">
+        <v>145</v>
+      </c>
+      <c r="S39">
+        <v>12</v>
+      </c>
+      <c r="T39" t="s">
+        <v>55</v>
+      </c>
+      <c r="U39">
+        <v>90</v>
+      </c>
+      <c r="V39" t="s">
+        <v>71</v>
+      </c>
+      <c r="W39">
+        <v>704</v>
+      </c>
+      <c r="X39" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA39">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>704</v>
+      </c>
+      <c r="B40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="K40" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{Frame,360,SetAction,703},{None,1,StalkX,0.1},{None,1,StalkY,0.1}]</v>
+      </c>
+      <c r="L40" t="s">
+        <v>55</v>
+      </c>
+      <c r="M40">
         <v>360</v>
       </c>
-      <c r="N39" t="s">
-        <v>71</v>
-      </c>
-      <c r="O39">
+      <c r="N40" t="s">
+        <v>71</v>
+      </c>
+      <c r="O40">
         <v>703</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P40" t="s">
         <v>158</v>
       </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-      <c r="R39" t="s">
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40" t="s">
         <v>144</v>
       </c>
-      <c r="S39">
+      <c r="S40">
         <v>0.1</v>
       </c>
-      <c r="T39" t="s">
+      <c r="T40" t="s">
         <v>158</v>
       </c>
-      <c r="U39">
-        <v>1</v>
-      </c>
-      <c r="V39" t="s">
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40" t="s">
         <v>145</v>
       </c>
-      <c r="W39">
+      <c r="W40">
         <v>0.1</v>
       </c>
     </row>
@@ -4275,13 +4342,13 @@
           <x14:formula1>
             <xm:f>_helper!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>AP3 AL8 AL2:AL3 AL21:AL23 AD2:AD39 AH2:AH39 Z2:Z39 R2:R39 V2:V39 N2:N39</xm:sqref>
+          <xm:sqref>AP3 AL8 AL2:AL3 AL21:AL23 N2:N40 V2:V40 R2:R40 Z2:Z40 AH2:AH40 AD2:AD40</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{38EFAF22-778F-4724-863A-ECD1104B256A}">
           <x14:formula1>
             <xm:f>_helper!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>AN3 AJ8 AJ2:AJ3 AJ21:AJ23 AB2:AB39 AF2:AF39 X2:X39 P2:P39 T2:T39 L2:L39</xm:sqref>
+          <xm:sqref>AN3 AJ8 AJ2:AJ3 AJ21:AJ23 L2:L40 T2:T40 P2:P40 X2:X40 AF2:AF40 AB2:AB40</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2AEDD5-09CB-4D08-A601-8D183B7D2E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D281D06C-B92B-4C39-BBD0-78D3FFDA2B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="172">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -546,22 +546,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오니 쥐로 대기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오니 변신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오니 휴식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오니 추적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>clamp_hold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -662,15 +646,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enemy_rush</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enemy_hold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>경비견 낙하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rat Happy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy_disappear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 쥐로 대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 본체 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 돌진 준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 돌진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥐는 그대로 휴식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -717,12 +737,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,8 +778,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07CD4AC0-49C4-4B86-80BF-22BA39ABB725}" name="표1" displayName="표1" ref="A1:AQ40" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:AQ40" xr:uid="{07CD4AC0-49C4-4B86-80BF-22BA39ABB725}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07CD4AC0-49C4-4B86-80BF-22BA39ABB725}" name="표1" displayName="표1" ref="A1:AQ43" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:AQ43" xr:uid="{07CD4AC0-49C4-4B86-80BF-22BA39ABB725}"/>
   <tableColumns count="43">
     <tableColumn id="1" xr3:uid="{70D73D05-C779-4D87-984C-9925A5D4EBE2}" name="Key"/>
     <tableColumn id="2" xr3:uid="{6C939BEA-81BC-4199-8571-BE159B9E93BD}" name="_memo"/>
@@ -1139,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
-  <dimension ref="A1:AQ40"/>
+  <dimension ref="A1:AQ43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1793,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q6">
         <v>-1</v>
@@ -2075,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O9">
         <v>0.2</v>
@@ -2158,7 +2181,7 @@
         <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -2192,7 +2215,7 @@
         <v>[{JumpDown,1,SetAction,104},{InputX,1,MoveInputX,12},{InputX,1,MoveY,6}]</v>
       </c>
       <c r="L10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -2435,7 +2458,7 @@
         <v>[{None,1,MoveLocalX,12},{Frame,1,Spawn,10100001},{None,1,MoveLocalX,0.01},{Frame,1,MoveY,5}]</v>
       </c>
       <c r="L13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -2459,7 +2482,7 @@
         <v>10100001</v>
       </c>
       <c r="T13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="U13">
         <v>1</v>
@@ -2525,7 +2548,7 @@
         <v>[{None,1,MoveLocalX,18},{Frame,0,MoveY,10}]</v>
       </c>
       <c r="L14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -2732,7 +2755,7 @@
         <v>12</v>
       </c>
       <c r="P17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -2807,7 +2830,7 @@
         <v>[{None,1,MoveLocalX,18},{None,1,MoveY,-18},{OnWall,1,SetAction,155},{OnLand,1,SetAction,101}]</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -2819,7 +2842,7 @@
         <v>18</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -2906,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -2996,7 +3019,7 @@
         <v>-18</v>
       </c>
       <c r="P20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -3008,7 +3031,7 @@
         <v>9</v>
       </c>
       <c r="T20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -3065,7 +3088,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O21">
         <v>0.2</v>
@@ -3191,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O22">
         <v>0.2</v>
@@ -3302,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O23">
         <v>0.2</v>
@@ -3430,7 +3453,7 @@
         <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3481,7 +3504,7 @@
         <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3532,7 +3555,7 @@
         <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -3583,7 +3606,7 @@
         <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3634,7 +3657,7 @@
         <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3685,7 +3708,7 @@
         <v>129</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3739,7 +3762,7 @@
         <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D31">
         <v>3.8</v>
@@ -3790,7 +3813,7 @@
         <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3821,7 +3844,7 @@
         <v>[{JumpDown,1,SetAction,503}]</v>
       </c>
       <c r="L32" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -3841,7 +3864,7 @@
         <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3889,10 +3912,10 @@
         <v>601</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D34">
         <v>1.6</v>
@@ -3923,7 +3946,7 @@
         <v>[{Walkable,1,MoveLocalX,2},{Walkable,0,MoveLocalX,-2},{OnLand,0,SetAction,603}]</v>
       </c>
       <c r="L34" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -3935,7 +3958,7 @@
         <v>2</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -3964,10 +3987,10 @@
         <v>602</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D35">
         <v>1.6</v>
@@ -3998,13 +4021,13 @@
         <v>[{Walkable,1,StalkX,-3}]</v>
       </c>
       <c r="L35" t="s">
+        <v>136</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
         <v>140</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35" t="s">
-        <v>144</v>
       </c>
       <c r="O35">
         <v>-3</v>
@@ -4015,10 +4038,10 @@
         <v>603</v>
       </c>
       <c r="B36" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D36">
         <v>1.6</v>
@@ -4066,28 +4089,28 @@
         <v>701</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s">
         <v>162</v>
       </c>
       <c r="D37">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K37" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -4100,7 +4123,7 @@
         <v>[{PlayerInSight,1,SetAction,702}]</v>
       </c>
       <c r="L37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -4117,7 +4140,7 @@
         <v>702</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s">
         <v>163</v>
@@ -4151,19 +4174,31 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,-1,MoveInputX,0}]</v>
+        <v>[{Frame,0,Spawn,0},{Frame,50,Spawn,1}]</v>
       </c>
       <c r="L38" t="s">
         <v>55</v>
       </c>
       <c r="M38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="O38">
         <v>0</v>
+      </c>
+      <c r="P38" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q38">
+        <v>50</v>
+      </c>
+      <c r="R38" t="s">
+        <v>67</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
@@ -4171,30 +4206,30 @@
         <v>703</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>12</v>
-      </c>
-      <c r="K39" t="str">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
   IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
@@ -4202,72 +4237,36 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,1,StalkX,12},{Frame,1,StalkY,12},{Frame,90,SetAction,704},{None,1,StalkX,0.01}]</v>
+        <v>[{Frame,-1,SetAction,703}]</v>
       </c>
       <c r="L39" t="s">
         <v>55</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N39" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="O39">
-        <v>12</v>
-      </c>
-      <c r="P39" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-      <c r="R39" t="s">
-        <v>145</v>
-      </c>
-      <c r="S39">
-        <v>12</v>
-      </c>
-      <c r="T39" t="s">
-        <v>55</v>
-      </c>
-      <c r="U39">
-        <v>90</v>
-      </c>
-      <c r="V39" t="s">
-        <v>71</v>
-      </c>
-      <c r="W39">
-        <v>704</v>
-      </c>
-      <c r="X39" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y39">
-        <v>1</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA39">
-        <v>0.01</v>
+        <v>703</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>704</v>
+        <v>801</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -4276,10 +4275,10 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K40" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
@@ -4289,43 +4288,232 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{Frame,360,SetAction,703},{None,1,StalkX,0.1},{None,1,StalkY,0.1}]</v>
+        <v>[{Frame,60,SetAction,803}]</v>
       </c>
       <c r="L40" t="s">
         <v>55</v>
       </c>
       <c r="M40">
+        <v>60</v>
+      </c>
+      <c r="N40" t="s">
+        <v>71</v>
+      </c>
+      <c r="O40">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>802</v>
+      </c>
+      <c r="B41" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>0.1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="K41" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{Frame,360,SetAction,803},{None,1,StalkX,0.1},{None,1,StalkY,0.1}]</v>
+      </c>
+      <c r="L41" t="s">
+        <v>55</v>
+      </c>
+      <c r="M41">
         <v>360</v>
       </c>
-      <c r="N40" t="s">
-        <v>71</v>
-      </c>
-      <c r="O40">
-        <v>703</v>
-      </c>
-      <c r="P40" t="s">
+      <c r="N41" t="s">
+        <v>71</v>
+      </c>
+      <c r="O41">
+        <v>803</v>
+      </c>
+      <c r="P41" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41" t="s">
+        <v>140</v>
+      </c>
+      <c r="S41">
+        <v>0.1</v>
+      </c>
+      <c r="T41" t="s">
+        <v>154</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41" t="s">
+        <v>141</v>
+      </c>
+      <c r="W41">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>803</v>
+      </c>
+      <c r="B42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" t="s">
         <v>158</v>
       </c>
-      <c r="Q40">
-        <v>1</v>
-      </c>
-      <c r="R40" t="s">
-        <v>144</v>
-      </c>
-      <c r="S40">
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
         <v>0.1</v>
       </c>
-      <c r="T40" t="s">
-        <v>158</v>
-      </c>
-      <c r="U40">
-        <v>1</v>
-      </c>
-      <c r="V40" t="s">
-        <v>145</v>
-      </c>
-      <c r="W40">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{Frame,120,SetAction,804}]</v>
+      </c>
+      <c r="L42" t="s">
+        <v>55</v>
+      </c>
+      <c r="M42">
+        <v>120</v>
+      </c>
+      <c r="N42" t="s">
+        <v>71</v>
+      </c>
+      <c r="O42">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>804</v>
+      </c>
+      <c r="B43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
         <v>0.1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>12</v>
+      </c>
+      <c r="I43">
+        <v>12</v>
+      </c>
+      <c r="K43" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
+  IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition3]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition3]] &amp; "," &amp; 표1[[#This Row],[_CParam3]] &amp; "," &amp; 표1[[#This Row],[_Function3]] &amp; "," &amp; 표1[[#This Row],[_FParam3]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
+  IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
+) &amp; "]"</f>
+        <v>[{Frame,1,StalkX,12},{Frame,1,StalkY,12},{Frame,90,SetAction,802},{None,1,StalkX,0.01}]</v>
+      </c>
+      <c r="L43" t="s">
+        <v>55</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>140</v>
+      </c>
+      <c r="O43">
+        <v>12</v>
+      </c>
+      <c r="P43" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43" t="s">
+        <v>141</v>
+      </c>
+      <c r="S43">
+        <v>12</v>
+      </c>
+      <c r="T43" t="s">
+        <v>55</v>
+      </c>
+      <c r="U43">
+        <v>90</v>
+      </c>
+      <c r="V43" t="s">
+        <v>71</v>
+      </c>
+      <c r="W43">
+        <v>802</v>
+      </c>
+      <c r="X43" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA43">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -4342,13 +4530,13 @@
           <x14:formula1>
             <xm:f>_helper!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>AP3 AL8 AL2:AL3 AL21:AL23 N2:N40 V2:V40 R2:R40 Z2:Z40 AH2:AH40 AD2:AD40</xm:sqref>
+          <xm:sqref>AP3 AL8 AL2:AL3 AL21:AL23 AH2:AH43 Z2:Z43 AD2:AD43 V2:V43 R2:R43 N2:N43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{38EFAF22-778F-4724-863A-ECD1104B256A}">
           <x14:formula1>
             <xm:f>_helper!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>AN3 AJ8 AJ2:AJ3 AJ21:AJ23 L2:L40 T2:T40 P2:P40 X2:X40 AF2:AF40 AB2:AB40</xm:sqref>
+          <xm:sqref>AN3 AJ8 AJ2:AJ3 AJ21:AJ23 AF2:AF43 L2:L43 AB2:AB43 T2:T43 P2:P43 X2:X43</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4372,7 +4560,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -4396,7 +4584,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -4428,7 +4616,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuye2\SWPP2024\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D281D06C-B92B-4C39-BBD0-78D3FFDA2B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9094FF3F-FD7B-4EB0-99AE-BBF352496E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
+    <workbookView xWindow="7140" yWindow="495" windowWidth="15720" windowHeight="14985" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -44,10 +33,20 @@
   <commentList>
     <comment ref="S13" authorId="0" shapeId="0" xr:uid="{E66A3162-0F90-431A-9409-B94D42850838}">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     넙버링 맞추기용 1 + 유닛 키 01 +카테고리 00 + 인덱스 001</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="173">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -691,6 +690,10 @@
   </si>
   <si>
     <t>Empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsStretchingStart</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,15 +740,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1164,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
   <dimension ref="A1:AQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2089,7 +2089,7 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputY,1,Stretch,0.2},{InputX,1,SetAction,181},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182},{Frame,0,Spawn,10100002}]</v>
+        <v>[{InputY,1,Stretch,0.2},{InputX,1,SetAction,181},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182},{IsStretchingStart,1,Spawn,10100002}]</v>
       </c>
       <c r="L9" t="s">
         <v>38</v>
@@ -2164,10 +2164,10 @@
         <v>182</v>
       </c>
       <c r="AJ9" t="s">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9" t="s">
         <v>68</v>
@@ -4229,7 +4229,7 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="K39" s="2" t="str">
+      <c r="K39" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE,
   IF(표1[[#This Row],[_Condition1]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition1]] &amp; "," &amp; 표1[[#This Row],[_CParam1]] &amp; "," &amp; 표1[[#This Row],[_Function1]] &amp; "," &amp; 표1[[#This Row],[_FParam1]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition2]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition2]] &amp; "," &amp; 표1[[#This Row],[_CParam2]] &amp; "," &amp; 표1[[#This Row],[_Function2]] &amp; "," &amp; 표1[[#This Row],[_FParam2]] &amp; "}", ""),

--- a/RunInBoots/Assets/Excel/ActionTable.xlsx
+++ b/RunInBoots/Assets/Excel/ActionTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuye2\SWPP2024\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul1\OneDrive\문서\Git\team-project-for-2024-fall-swpp-team-05\RunInBoots\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9094FF3F-FD7B-4EB0-99AE-BBF352496E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191A4948-586B-4CBB-9263-9AFDC218EF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="495" windowWidth="15720" windowHeight="14985" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{D47B4964-B3F8-4260-96F1-09DFF1E3D63F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -33,20 +44,10 @@
   <commentList>
     <comment ref="S13" authorId="0" shapeId="0" xr:uid="{E66A3162-0F90-431A-9409-B94D42850838}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     넙버링 맞추기용 1 + 유닛 키 01 +카테고리 00 + 인덱스 001</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -1164,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315677FB-260A-4651-8343-EA147A10AE96}">
   <dimension ref="A1:AQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AJ9" sqref="AJ9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2089,49 +2090,49 @@
   IF(표1[[#This Row],[_Condition4]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition4]] &amp; "," &amp; 표1[[#This Row],[_CParam4]] &amp; "," &amp; 표1[[#This Row],[_Function4]] &amp; "," &amp; 표1[[#This Row],[_FParam4]] &amp; "}", ""),
   IF(표1[[#This Row],[_Condition5]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition5]] &amp; "," &amp; 표1[[#This Row],[_CParam5]] &amp; "," &amp; 표1[[#This Row],[_Function5]] &amp; "," &amp; 표1[[#This Row],[_FParam5]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition6]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition6]] &amp; "," &amp; 표1[[#This Row],[_CParam6]] &amp; "," &amp; 표1[[#This Row],[_Function6]] &amp; "," &amp; 표1[[#This Row],[_FParam6]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition7]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition7]] &amp; "," &amp; 표1[[#This Row],[_CParam7]] &amp; "," &amp; 표1[[#This Row],[_Function7]] &amp; "," &amp; 표1[[#This Row],[_FParam7]] &amp; "}", ""),  IF(표1[[#This Row],[_Condition8]]&lt;&gt;"", "{" &amp; 표1[[#This Row],[_Condition8]] &amp; "," &amp; 표1[[#This Row],[_CParam8]] &amp; "," &amp; 표1[[#This Row],[_Function8]] &amp; "," &amp; 표1[[#This Row],[_FParam8]] &amp; "}", "")
 ) &amp; "]"</f>
-        <v>[{InputY,1,Stretch,0.2},{InputX,1,SetAction,181},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182},{IsStretchingStart,1,Spawn,10100002}]</v>
+        <v>[{IsStretchingStart,1,Spawn,10100002},{InputY,1,Stretch,0.2},{InputX,1,SetAction,181},{InputY,0,SetAction,184},{InputY,-1,SetAction,184},{OnLand,0,SetAction,183},{JumpValid,1,SetAction,182}]</v>
       </c>
       <c r="L9" t="s">
+        <v>172</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9">
+        <v>10100002</v>
+      </c>
+      <c r="P9" t="s">
         <v>38</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
         <v>149</v>
       </c>
-      <c r="O9">
+      <c r="S9">
         <v>0.2</v>
       </c>
-      <c r="P9" t="s">
+      <c r="T9" t="s">
         <v>36</v>
       </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9" t="s">
-        <v>71</v>
-      </c>
-      <c r="S9">
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W9">
         <v>181</v>
-      </c>
-      <c r="T9" t="s">
-        <v>38</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W9">
-        <v>184</v>
       </c>
       <c r="X9" t="s">
         <v>38</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="s">
         <v>71</v>
@@ -2140,40 +2141,40 @@
         <v>184</v>
       </c>
       <c r="AB9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC9">
+        <v>-1</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE9">
+        <v>184</v>
+      </c>
+      <c r="AF9" t="s">
         <v>50</v>
       </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE9">
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI9">
         <v>183</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AJ9" t="s">
         <v>44</v>
       </c>
-      <c r="AG9">
-        <v>1</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI9">
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM9">
         <v>182</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>172</v>
-      </c>
-      <c r="AK9">
-        <v>1</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM9">
-        <v>10100002</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.3">
@@ -4530,13 +4531,13 @@
           <x14:formula1>
             <xm:f>_helper!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>AP3 AL8 AL2:AL3 AL21:AL23 AH2:AH43 Z2:Z43 AD2:AD43 V2:V43 R2:R43 N2:N43</xm:sqref>
+          <xm:sqref>AP3 AL2:AL3 AL21:AL23 N2:N8 N10:N43 R2:R43 V2:V43 AD2:AD43 Z2:Z43 AL8:AL9 AH2:AH43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{38EFAF22-778F-4724-863A-ECD1104B256A}">
           <x14:formula1>
             <xm:f>_helper!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>AN3 AJ8 AJ2:AJ3 AJ21:AJ23 AF2:AF43 L2:L43 AB2:AB43 T2:T43 P2:P43 X2:X43</xm:sqref>
+          <xm:sqref>AN3 AJ2:AJ3 AJ21:AJ23 X2:X43 T2:T43 AB2:AB43 P2:P43 L2:L8 L10:L43 AJ8:AJ9 AF2:AF43</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
